--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="399" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8469923-3D96-41E1-9D8A-25E03D922D73}"/>
+  <xr:revisionPtr revIDLastSave="408" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA967A7B-4249-4515-A077-10FACA5B74D2}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11186" uniqueCount="4922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11177" uniqueCount="4919">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -14790,16 +14790,7 @@
     <t>Bad intentions detection</t>
   </si>
   <si>
-    <t>Hallucination</t>
-  </si>
-  <si>
-    <t>Negative of an option</t>
-  </si>
-  <si>
     <t>Remove target term</t>
-  </si>
-  <si>
-    <t>Reluctant selection</t>
   </si>
   <si>
     <t>Neither option</t>
@@ -15188,10 +15179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1509"/>
+  <dimension ref="A1:J1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G200" sqref="G200"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15202,7 +15193,7 @@
     <col min="9" max="9" width="3.06640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -15231,7 +15222,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>895</v>
       </c>
@@ -15262,11 +15253,8 @@
       <c r="J2" t="s">
         <v>4915</v>
       </c>
-      <c r="R2" t="s">
-        <v>4913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -15294,11 +15282,8 @@
       <c r="I3" t="s">
         <v>4910</v>
       </c>
-      <c r="R3" t="s">
-        <v>4914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -15326,11 +15311,8 @@
       <c r="I4" t="s">
         <v>4911</v>
       </c>
-      <c r="R4" t="s">
-        <v>4921</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>243</v>
       </c>
@@ -15361,11 +15343,8 @@
       <c r="J5" t="s">
         <v>4916</v>
       </c>
-      <c r="R5" t="s">
-        <v>4915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -15396,11 +15375,8 @@
       <c r="J6" t="s">
         <v>4913</v>
       </c>
-      <c r="R6" t="s">
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1211</v>
       </c>
@@ -15431,11 +15407,8 @@
       <c r="J7" t="s">
         <v>4916</v>
       </c>
-      <c r="R7" t="s">
-        <v>4920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15463,11 +15436,8 @@
       <c r="I8" t="s">
         <v>4910</v>
       </c>
-      <c r="R8" t="s">
-        <v>4917</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -15498,11 +15468,8 @@
       <c r="J9" t="s">
         <v>4916</v>
       </c>
-      <c r="R9" t="s">
-        <v>4918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>355</v>
       </c>
@@ -15533,11 +15500,8 @@
       <c r="J10" t="s">
         <v>4916</v>
       </c>
-      <c r="R10" t="s">
-        <v>4919</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15566,7 +15530,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15595,7 +15559,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1363</v>
       </c>
@@ -15627,7 +15591,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15656,7 +15620,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -15688,7 +15652,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>715</v>
       </c>
@@ -21284,7 +21248,7 @@
         <v>4909</v>
       </c>
       <c r="J200" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.45">
@@ -26798,7 +26762,7 @@
         <v>4909</v>
       </c>
       <c r="J383" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.45">
@@ -26830,7 +26794,7 @@
         <v>4909</v>
       </c>
       <c r="J384" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.45">
@@ -26952,7 +26916,7 @@
         <v>4909</v>
       </c>
       <c r="J388" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.45">
@@ -27344,7 +27308,7 @@
         <v>4909</v>
       </c>
       <c r="J401" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.45">
@@ -27463,7 +27427,7 @@
         <v>4909</v>
       </c>
       <c r="J405" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.45">
@@ -27582,7 +27546,7 @@
         <v>4909</v>
       </c>
       <c r="J409" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.45">
@@ -27643,7 +27607,7 @@
         <v>4909</v>
       </c>
       <c r="J411" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.45">
@@ -27733,7 +27697,7 @@
         <v>4909</v>
       </c>
       <c r="J414" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.45">
@@ -27823,7 +27787,7 @@
         <v>4909</v>
       </c>
       <c r="J417" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.45">
@@ -27884,7 +27848,7 @@
         <v>4909</v>
       </c>
       <c r="J419" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.45">
@@ -27916,7 +27880,7 @@
         <v>4909</v>
       </c>
       <c r="J420" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.45">
@@ -28006,7 +27970,7 @@
         <v>4909</v>
       </c>
       <c r="J423" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.45">
@@ -28038,7 +28002,7 @@
         <v>4909</v>
       </c>
       <c r="J424" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.45">
@@ -28070,7 +28034,7 @@
         <v>4909</v>
       </c>
       <c r="J425" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.45">
@@ -28102,7 +28066,7 @@
         <v>4909</v>
       </c>
       <c r="J426" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.45">
@@ -28250,7 +28214,7 @@
         <v>4909</v>
       </c>
       <c r="J431" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.45">
@@ -28282,7 +28246,7 @@
         <v>4909</v>
       </c>
       <c r="J432" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.45">
@@ -28314,7 +28278,7 @@
         <v>4909</v>
       </c>
       <c r="J433" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.45">
@@ -28520,7 +28484,7 @@
         <v>4909</v>
       </c>
       <c r="J440" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.45">
@@ -28581,7 +28545,7 @@
         <v>4909</v>
       </c>
       <c r="J442" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.45">
@@ -28642,7 +28606,7 @@
         <v>4909</v>
       </c>
       <c r="J444" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.45">
@@ -28732,7 +28696,7 @@
         <v>4909</v>
       </c>
       <c r="J447" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.45">
@@ -28793,7 +28757,7 @@
         <v>4909</v>
       </c>
       <c r="J449" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.45">
@@ -28825,7 +28789,7 @@
         <v>4909</v>
       </c>
       <c r="J450" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.45">
@@ -29887,7 +29851,7 @@
         <v>4909</v>
       </c>
       <c r="J486" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.45">
@@ -30154,7 +30118,7 @@
         <v>4909</v>
       </c>
       <c r="J495" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.45">
@@ -30807,7 +30771,7 @@
         <v>4909</v>
       </c>
       <c r="J517" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.45">
@@ -30868,7 +30832,7 @@
         <v>4909</v>
       </c>
       <c r="J519" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.45">
@@ -30958,7 +30922,7 @@
         <v>4909</v>
       </c>
       <c r="J522" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.45">
@@ -31077,7 +31041,7 @@
         <v>4909</v>
       </c>
       <c r="J526" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.45">
@@ -31109,7 +31073,7 @@
         <v>4909</v>
       </c>
       <c r="J527" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.45">
@@ -31170,7 +31134,7 @@
         <v>4909</v>
       </c>
       <c r="J529" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.45">
@@ -31231,7 +31195,7 @@
         <v>4909</v>
       </c>
       <c r="J531" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.45">
@@ -31411,7 +31375,7 @@
         <v>4909</v>
       </c>
       <c r="J537" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.45">
@@ -31501,7 +31465,7 @@
         <v>4909</v>
       </c>
       <c r="J540" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.45">
@@ -31652,7 +31616,7 @@
         <v>4909</v>
       </c>
       <c r="J545" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.45">
@@ -31742,7 +31706,7 @@
         <v>4909</v>
       </c>
       <c r="J548" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.45">
@@ -31922,7 +31886,7 @@
         <v>4909</v>
       </c>
       <c r="J554" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.45">
@@ -31954,7 +31918,7 @@
         <v>4909</v>
       </c>
       <c r="J555" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.45">
@@ -31986,7 +31950,7 @@
         <v>4909</v>
       </c>
       <c r="J556" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.45">
@@ -32076,7 +32040,7 @@
         <v>4909</v>
       </c>
       <c r="J559" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.45">
@@ -32137,7 +32101,7 @@
         <v>4909</v>
       </c>
       <c r="J561" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.45">
@@ -32198,7 +32162,7 @@
         <v>4909</v>
       </c>
       <c r="J563" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.45">
@@ -32375,7 +32339,7 @@
         <v>4909</v>
       </c>
       <c r="J569" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.45">
@@ -32407,7 +32371,7 @@
         <v>4909</v>
       </c>
       <c r="J570" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.45">
@@ -32439,7 +32403,7 @@
         <v>4909</v>
       </c>
       <c r="J571" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.45">
@@ -32471,7 +32435,7 @@
         <v>4909</v>
       </c>
       <c r="J572" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.45">
@@ -32532,7 +32496,7 @@
         <v>4909</v>
       </c>
       <c r="J574" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.45">
@@ -32564,7 +32528,7 @@
         <v>4909</v>
       </c>
       <c r="J575" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.45">
@@ -32712,7 +32676,7 @@
         <v>4909</v>
       </c>
       <c r="J580" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.45">
@@ -32744,7 +32708,7 @@
         <v>4909</v>
       </c>
       <c r="J581" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.45">
@@ -32805,7 +32769,7 @@
         <v>4909</v>
       </c>
       <c r="J583" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.45">
@@ -32837,7 +32801,7 @@
         <v>4909</v>
       </c>
       <c r="J584" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.45">
@@ -32985,7 +32949,7 @@
         <v>4909</v>
       </c>
       <c r="J589" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.45">
@@ -33397,7 +33361,7 @@
         <v>4909</v>
       </c>
       <c r="J603" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.45">
@@ -33609,7 +33573,7 @@
         <v>4909</v>
       </c>
       <c r="J610" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.45">
@@ -33699,7 +33663,7 @@
         <v>4909</v>
       </c>
       <c r="J613" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.45">
@@ -33760,7 +33724,7 @@
         <v>4909</v>
       </c>
       <c r="J615" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.45">
@@ -33792,7 +33756,7 @@
         <v>4909</v>
       </c>
       <c r="J616" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.45">
@@ -33824,7 +33788,7 @@
         <v>4909</v>
       </c>
       <c r="J617" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.45">
@@ -33885,7 +33849,7 @@
         <v>4909</v>
       </c>
       <c r="J619" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.45">
@@ -33978,7 +33942,7 @@
         <v>4909</v>
       </c>
       <c r="J622" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.45">
@@ -34068,7 +34032,7 @@
         <v>4909</v>
       </c>
       <c r="J625" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.45">
@@ -34100,7 +34064,7 @@
         <v>4909</v>
       </c>
       <c r="J626" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.45">
@@ -34341,7 +34305,7 @@
         <v>4909</v>
       </c>
       <c r="J634" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.45">
@@ -34402,7 +34366,7 @@
         <v>4909</v>
       </c>
       <c r="J636" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.45">
@@ -34466,7 +34430,7 @@
         <v>4909</v>
       </c>
       <c r="J638" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.45">
@@ -34585,7 +34549,7 @@
         <v>4909</v>
       </c>
       <c r="J642" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.45">
@@ -34617,7 +34581,7 @@
         <v>4909</v>
       </c>
       <c r="J643" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.45">
@@ -34649,7 +34613,7 @@
         <v>4909</v>
       </c>
       <c r="J644" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.45">
@@ -34710,7 +34674,7 @@
         <v>4909</v>
       </c>
       <c r="J646" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.45">
@@ -34771,7 +34735,7 @@
         <v>4909</v>
       </c>
       <c r="J648" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.45">
@@ -34919,7 +34883,7 @@
         <v>4909</v>
       </c>
       <c r="J653" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.45">
@@ -35038,7 +35002,7 @@
         <v>4909</v>
       </c>
       <c r="J657" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.45">
@@ -35360,7 +35324,7 @@
         <v>4909</v>
       </c>
       <c r="J668" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.45">
@@ -35421,7 +35385,7 @@
         <v>4909</v>
       </c>
       <c r="J670" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.45">
@@ -36202,7 +36166,7 @@
         <v>4909</v>
       </c>
       <c r="J696" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.45">
@@ -36359,7 +36323,7 @@
         <v>4909</v>
       </c>
       <c r="J701" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.45">
@@ -36449,7 +36413,7 @@
         <v>4909</v>
       </c>
       <c r="J704" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.45">
@@ -36510,7 +36474,7 @@
         <v>4909</v>
       </c>
       <c r="J706" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.45">
@@ -36542,7 +36506,7 @@
         <v>4909</v>
       </c>
       <c r="J707" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.45">
@@ -36632,7 +36596,7 @@
         <v>4909</v>
       </c>
       <c r="J710" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.45">
@@ -36838,7 +36802,7 @@
         <v>4909</v>
       </c>
       <c r="J717" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.45">
@@ -36957,7 +36921,7 @@
         <v>4909</v>
       </c>
       <c r="J721" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.45">
@@ -37105,7 +37069,7 @@
         <v>4909</v>
       </c>
       <c r="J726" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.45">
@@ -37317,7 +37281,7 @@
         <v>4909</v>
       </c>
       <c r="J733" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.45">
@@ -37349,7 +37313,7 @@
         <v>4909</v>
       </c>
       <c r="J734" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.45">
@@ -37381,7 +37345,7 @@
         <v>4909</v>
       </c>
       <c r="J735" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.45">
@@ -37625,7 +37589,7 @@
         <v>4909</v>
       </c>
       <c r="J743" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.45">
@@ -37776,7 +37740,7 @@
         <v>4909</v>
       </c>
       <c r="J748" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.45">
@@ -37898,7 +37862,7 @@
         <v>4909</v>
       </c>
       <c r="J752" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.45">
@@ -37959,7 +37923,7 @@
         <v>4909</v>
       </c>
       <c r="J754" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.45">
@@ -38020,7 +37984,7 @@
         <v>4909</v>
       </c>
       <c r="J756" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.45">
@@ -38168,7 +38132,7 @@
         <v>4909</v>
       </c>
       <c r="J761" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.45">
@@ -38374,7 +38338,7 @@
         <v>4909</v>
       </c>
       <c r="J768" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.45">
@@ -38464,7 +38428,7 @@
         <v>4909</v>
       </c>
       <c r="J771" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.45">
@@ -38554,7 +38518,7 @@
         <v>4909</v>
       </c>
       <c r="J774" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.45">
@@ -38615,7 +38579,7 @@
         <v>4909</v>
       </c>
       <c r="J776" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.45">
@@ -38647,7 +38611,7 @@
         <v>4909</v>
       </c>
       <c r="J777" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.45">
@@ -38679,7 +38643,7 @@
         <v>4909</v>
       </c>
       <c r="J778" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.45">
@@ -38798,7 +38762,7 @@
         <v>4909</v>
       </c>
       <c r="J782" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.45">
@@ -38830,7 +38794,7 @@
         <v>4909</v>
       </c>
       <c r="J783" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.45">
@@ -38862,7 +38826,7 @@
         <v>4909</v>
       </c>
       <c r="J784" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.45">
@@ -39097,7 +39061,7 @@
         <v>4909</v>
       </c>
       <c r="J792" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.45">
@@ -39245,7 +39209,7 @@
         <v>4909</v>
       </c>
       <c r="J797" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.45">
@@ -39277,7 +39241,7 @@
         <v>4909</v>
       </c>
       <c r="J798" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.45">
@@ -39428,7 +39392,7 @@
         <v>4909</v>
       </c>
       <c r="J803" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.45">
@@ -39524,7 +39488,7 @@
         <v>4909</v>
       </c>
       <c r="J806" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.45">
@@ -39585,7 +39549,7 @@
         <v>4909</v>
       </c>
       <c r="J808" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.45">
@@ -40006,7 +39970,7 @@
         <v>4909</v>
       </c>
       <c r="J822" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.45">
@@ -40038,7 +40002,7 @@
         <v>4909</v>
       </c>
       <c r="J823" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.45">
@@ -40157,7 +40121,7 @@
         <v>4909</v>
       </c>
       <c r="J827" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.45">
@@ -40189,7 +40153,7 @@
         <v>4909</v>
       </c>
       <c r="J828" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.45">
@@ -40282,7 +40246,7 @@
         <v>4909</v>
       </c>
       <c r="J831" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.45">
@@ -40520,7 +40484,7 @@
         <v>4909</v>
       </c>
       <c r="J839" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.45">
@@ -40552,7 +40516,7 @@
         <v>4909</v>
       </c>
       <c r="J840" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.45">
@@ -40584,7 +40548,7 @@
         <v>4909</v>
       </c>
       <c r="J841" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.45">
@@ -40616,7 +40580,7 @@
         <v>4909</v>
       </c>
       <c r="J842" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.45">
@@ -40648,7 +40612,7 @@
         <v>4909</v>
       </c>
       <c r="J843" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.45">
@@ -40712,7 +40676,7 @@
         <v>4909</v>
       </c>
       <c r="J845" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.45">
@@ -40744,7 +40708,7 @@
         <v>4909</v>
       </c>
       <c r="J846" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.45">
@@ -40979,7 +40943,7 @@
         <v>4909</v>
       </c>
       <c r="J854" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.45">
@@ -41011,7 +40975,7 @@
         <v>4909</v>
       </c>
       <c r="J855" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.45">
@@ -41101,7 +41065,7 @@
         <v>4909</v>
       </c>
       <c r="J858" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.45">
@@ -41162,7 +41126,7 @@
         <v>4909</v>
       </c>
       <c r="J860" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.45">
@@ -41194,7 +41158,7 @@
         <v>4909</v>
       </c>
       <c r="J861" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.45">
@@ -41458,7 +41422,7 @@
         <v>4909</v>
       </c>
       <c r="J870" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.45">
@@ -41490,7 +41454,7 @@
         <v>4909</v>
       </c>
       <c r="J871" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.45">
@@ -41551,7 +41515,7 @@
         <v>4909</v>
       </c>
       <c r="J873" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.45">
@@ -41583,7 +41547,7 @@
         <v>4909</v>
       </c>
       <c r="J874" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.45">
@@ -41615,7 +41579,7 @@
         <v>4909</v>
       </c>
       <c r="J875" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.45">
@@ -41676,7 +41640,7 @@
         <v>4909</v>
       </c>
       <c r="J877" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.45">
@@ -41708,7 +41672,7 @@
         <v>4909</v>
       </c>
       <c r="J878" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.45">
@@ -41769,7 +41733,7 @@
         <v>4909</v>
       </c>
       <c r="J880" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.45">
@@ -41888,7 +41852,7 @@
         <v>4909</v>
       </c>
       <c r="J884" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.45">
@@ -41978,7 +41942,7 @@
         <v>4909</v>
       </c>
       <c r="J887" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.45">
@@ -42068,7 +42032,7 @@
         <v>4909</v>
       </c>
       <c r="J890" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.45">
@@ -42248,7 +42212,7 @@
         <v>4909</v>
       </c>
       <c r="J896" t="s">
-        <v>4921</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.45">
@@ -58715,7 +58679,7 @@
         <v>4909</v>
       </c>
       <c r="J1439" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.45">
@@ -58747,7 +58711,7 @@
         <v>4909</v>
       </c>
       <c r="J1440" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.45">
@@ -58956,7 +58920,7 @@
         <v>4909</v>
       </c>
       <c r="J1447" t="s">
-        <v>4919</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.45">

--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="408" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA967A7B-4249-4515-A077-10FACA5B74D2}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61DB18C-6374-413C-A72F-5C1BCC1A5458}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14790,10 +14790,10 @@
     <t>Bad intentions detection</t>
   </si>
   <si>
-    <t>Remove target term</t>
-  </si>
-  <si>
     <t>Neither option</t>
+  </si>
+  <si>
+    <t>Avoid (un)targeted term</t>
   </si>
 </sst>
 </file>
@@ -15182,7 +15182,7 @@
   <dimension ref="A1:J1509"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21248,7 +21248,7 @@
         <v>4909</v>
       </c>
       <c r="J200" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.45">
@@ -26762,7 +26762,7 @@
         <v>4909</v>
       </c>
       <c r="J383" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.45">
@@ -26794,7 +26794,7 @@
         <v>4909</v>
       </c>
       <c r="J384" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.45">
@@ -26916,7 +26916,7 @@
         <v>4909</v>
       </c>
       <c r="J388" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.45">
@@ -27308,7 +27308,7 @@
         <v>4909</v>
       </c>
       <c r="J401" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.45">
@@ -27427,7 +27427,7 @@
         <v>4909</v>
       </c>
       <c r="J405" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.45">
@@ -27546,7 +27546,7 @@
         <v>4909</v>
       </c>
       <c r="J409" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.45">
@@ -27607,7 +27607,7 @@
         <v>4909</v>
       </c>
       <c r="J411" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.45">
@@ -27697,7 +27697,7 @@
         <v>4909</v>
       </c>
       <c r="J414" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.45">
@@ -27787,7 +27787,7 @@
         <v>4909</v>
       </c>
       <c r="J417" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.45">
@@ -27848,7 +27848,7 @@
         <v>4909</v>
       </c>
       <c r="J419" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.45">
@@ -27880,7 +27880,7 @@
         <v>4909</v>
       </c>
       <c r="J420" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.45">
@@ -27970,7 +27970,7 @@
         <v>4909</v>
       </c>
       <c r="J423" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.45">
@@ -28002,7 +28002,7 @@
         <v>4909</v>
       </c>
       <c r="J424" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.45">
@@ -28034,7 +28034,7 @@
         <v>4909</v>
       </c>
       <c r="J425" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.45">
@@ -28066,7 +28066,7 @@
         <v>4909</v>
       </c>
       <c r="J426" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.45">
@@ -28214,7 +28214,7 @@
         <v>4909</v>
       </c>
       <c r="J431" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.45">
@@ -28246,7 +28246,7 @@
         <v>4909</v>
       </c>
       <c r="J432" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.45">
@@ -28278,7 +28278,7 @@
         <v>4909</v>
       </c>
       <c r="J433" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.45">
@@ -28484,7 +28484,7 @@
         <v>4909</v>
       </c>
       <c r="J440" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.45">
@@ -28545,7 +28545,7 @@
         <v>4909</v>
       </c>
       <c r="J442" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.45">
@@ -28606,7 +28606,7 @@
         <v>4909</v>
       </c>
       <c r="J444" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.45">
@@ -28696,7 +28696,7 @@
         <v>4909</v>
       </c>
       <c r="J447" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.45">
@@ -28757,7 +28757,7 @@
         <v>4909</v>
       </c>
       <c r="J449" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.45">
@@ -28789,7 +28789,7 @@
         <v>4909</v>
       </c>
       <c r="J450" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.45">
@@ -29851,7 +29851,7 @@
         <v>4909</v>
       </c>
       <c r="J486" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.45">
@@ -30118,7 +30118,7 @@
         <v>4909</v>
       </c>
       <c r="J495" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.45">
@@ -30771,7 +30771,7 @@
         <v>4909</v>
       </c>
       <c r="J517" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.45">
@@ -30832,7 +30832,7 @@
         <v>4909</v>
       </c>
       <c r="J519" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.45">
@@ -30922,7 +30922,7 @@
         <v>4909</v>
       </c>
       <c r="J522" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.45">
@@ -31041,7 +31041,7 @@
         <v>4909</v>
       </c>
       <c r="J526" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.45">
@@ -31073,7 +31073,7 @@
         <v>4909</v>
       </c>
       <c r="J527" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.45">
@@ -31134,7 +31134,7 @@
         <v>4909</v>
       </c>
       <c r="J529" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.45">
@@ -31195,7 +31195,7 @@
         <v>4909</v>
       </c>
       <c r="J531" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.45">
@@ -31375,7 +31375,7 @@
         <v>4909</v>
       </c>
       <c r="J537" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.45">
@@ -31465,7 +31465,7 @@
         <v>4909</v>
       </c>
       <c r="J540" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.45">
@@ -31616,7 +31616,7 @@
         <v>4909</v>
       </c>
       <c r="J545" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.45">
@@ -31706,7 +31706,7 @@
         <v>4909</v>
       </c>
       <c r="J548" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.45">
@@ -31886,7 +31886,7 @@
         <v>4909</v>
       </c>
       <c r="J554" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.45">
@@ -31918,7 +31918,7 @@
         <v>4909</v>
       </c>
       <c r="J555" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.45">
@@ -31950,7 +31950,7 @@
         <v>4909</v>
       </c>
       <c r="J556" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.45">
@@ -32040,7 +32040,7 @@
         <v>4909</v>
       </c>
       <c r="J559" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.45">
@@ -32101,7 +32101,7 @@
         <v>4909</v>
       </c>
       <c r="J561" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.45">
@@ -32162,7 +32162,7 @@
         <v>4909</v>
       </c>
       <c r="J563" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.45">
@@ -32339,7 +32339,7 @@
         <v>4909</v>
       </c>
       <c r="J569" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.45">
@@ -32371,7 +32371,7 @@
         <v>4909</v>
       </c>
       <c r="J570" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.45">
@@ -32403,7 +32403,7 @@
         <v>4909</v>
       </c>
       <c r="J571" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.45">
@@ -32435,7 +32435,7 @@
         <v>4909</v>
       </c>
       <c r="J572" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.45">
@@ -32496,7 +32496,7 @@
         <v>4909</v>
       </c>
       <c r="J574" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.45">
@@ -32528,7 +32528,7 @@
         <v>4909</v>
       </c>
       <c r="J575" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.45">
@@ -32676,7 +32676,7 @@
         <v>4909</v>
       </c>
       <c r="J580" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.45">
@@ -32708,7 +32708,7 @@
         <v>4909</v>
       </c>
       <c r="J581" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.45">
@@ -32769,7 +32769,7 @@
         <v>4909</v>
       </c>
       <c r="J583" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.45">
@@ -32801,7 +32801,7 @@
         <v>4909</v>
       </c>
       <c r="J584" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.45">
@@ -32949,7 +32949,7 @@
         <v>4909</v>
       </c>
       <c r="J589" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.45">
@@ -33361,7 +33361,7 @@
         <v>4909</v>
       </c>
       <c r="J603" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.45">
@@ -33573,7 +33573,7 @@
         <v>4909</v>
       </c>
       <c r="J610" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.45">
@@ -33663,7 +33663,7 @@
         <v>4909</v>
       </c>
       <c r="J613" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.45">
@@ -33724,7 +33724,7 @@
         <v>4909</v>
       </c>
       <c r="J615" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.45">
@@ -33756,7 +33756,7 @@
         <v>4909</v>
       </c>
       <c r="J616" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.45">
@@ -33788,7 +33788,7 @@
         <v>4909</v>
       </c>
       <c r="J617" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.45">
@@ -33849,7 +33849,7 @@
         <v>4909</v>
       </c>
       <c r="J619" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.45">
@@ -33942,7 +33942,7 @@
         <v>4909</v>
       </c>
       <c r="J622" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.45">
@@ -34032,7 +34032,7 @@
         <v>4909</v>
       </c>
       <c r="J625" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.45">
@@ -34064,7 +34064,7 @@
         <v>4909</v>
       </c>
       <c r="J626" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.45">
@@ -34305,7 +34305,7 @@
         <v>4909</v>
       </c>
       <c r="J634" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.45">
@@ -34366,7 +34366,7 @@
         <v>4909</v>
       </c>
       <c r="J636" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.45">
@@ -34430,7 +34430,7 @@
         <v>4909</v>
       </c>
       <c r="J638" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.45">
@@ -34549,7 +34549,7 @@
         <v>4909</v>
       </c>
       <c r="J642" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.45">
@@ -34581,7 +34581,7 @@
         <v>4909</v>
       </c>
       <c r="J643" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.45">
@@ -34613,7 +34613,7 @@
         <v>4909</v>
       </c>
       <c r="J644" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.45">
@@ -34674,7 +34674,7 @@
         <v>4909</v>
       </c>
       <c r="J646" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.45">
@@ -34735,7 +34735,7 @@
         <v>4909</v>
       </c>
       <c r="J648" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.45">
@@ -34883,7 +34883,7 @@
         <v>4909</v>
       </c>
       <c r="J653" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.45">
@@ -35002,7 +35002,7 @@
         <v>4909</v>
       </c>
       <c r="J657" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.45">
@@ -35324,7 +35324,7 @@
         <v>4909</v>
       </c>
       <c r="J668" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.45">
@@ -35385,7 +35385,7 @@
         <v>4909</v>
       </c>
       <c r="J670" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.45">
@@ -36166,7 +36166,7 @@
         <v>4909</v>
       </c>
       <c r="J696" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.45">
@@ -36323,7 +36323,7 @@
         <v>4909</v>
       </c>
       <c r="J701" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.45">
@@ -36413,7 +36413,7 @@
         <v>4909</v>
       </c>
       <c r="J704" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.45">
@@ -36474,7 +36474,7 @@
         <v>4909</v>
       </c>
       <c r="J706" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.45">
@@ -36506,7 +36506,7 @@
         <v>4909</v>
       </c>
       <c r="J707" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.45">
@@ -36596,7 +36596,7 @@
         <v>4909</v>
       </c>
       <c r="J710" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.45">
@@ -36802,7 +36802,7 @@
         <v>4909</v>
       </c>
       <c r="J717" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.45">
@@ -36921,7 +36921,7 @@
         <v>4909</v>
       </c>
       <c r="J721" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.45">
@@ -37069,7 +37069,7 @@
         <v>4909</v>
       </c>
       <c r="J726" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.45">
@@ -37281,7 +37281,7 @@
         <v>4909</v>
       </c>
       <c r="J733" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.45">
@@ -37313,7 +37313,7 @@
         <v>4909</v>
       </c>
       <c r="J734" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.45">
@@ -37345,7 +37345,7 @@
         <v>4909</v>
       </c>
       <c r="J735" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.45">
@@ -37589,7 +37589,7 @@
         <v>4909</v>
       </c>
       <c r="J743" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.45">
@@ -37740,7 +37740,7 @@
         <v>4909</v>
       </c>
       <c r="J748" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.45">
@@ -37862,7 +37862,7 @@
         <v>4909</v>
       </c>
       <c r="J752" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.45">
@@ -37923,7 +37923,7 @@
         <v>4909</v>
       </c>
       <c r="J754" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.45">
@@ -37984,7 +37984,7 @@
         <v>4909</v>
       </c>
       <c r="J756" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.45">
@@ -38132,7 +38132,7 @@
         <v>4909</v>
       </c>
       <c r="J761" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.45">
@@ -38338,7 +38338,7 @@
         <v>4909</v>
       </c>
       <c r="J768" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.45">
@@ -38428,7 +38428,7 @@
         <v>4909</v>
       </c>
       <c r="J771" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.45">
@@ -38518,7 +38518,7 @@
         <v>4909</v>
       </c>
       <c r="J774" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.45">
@@ -38579,7 +38579,7 @@
         <v>4909</v>
       </c>
       <c r="J776" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.45">
@@ -38611,7 +38611,7 @@
         <v>4909</v>
       </c>
       <c r="J777" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.45">
@@ -38643,7 +38643,7 @@
         <v>4909</v>
       </c>
       <c r="J778" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.45">
@@ -38762,7 +38762,7 @@
         <v>4909</v>
       </c>
       <c r="J782" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.45">
@@ -38794,7 +38794,7 @@
         <v>4909</v>
       </c>
       <c r="J783" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.45">
@@ -38826,7 +38826,7 @@
         <v>4909</v>
       </c>
       <c r="J784" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.45">
@@ -39061,7 +39061,7 @@
         <v>4909</v>
       </c>
       <c r="J792" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.45">
@@ -39209,7 +39209,7 @@
         <v>4909</v>
       </c>
       <c r="J797" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.45">
@@ -39241,7 +39241,7 @@
         <v>4909</v>
       </c>
       <c r="J798" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.45">
@@ -39392,7 +39392,7 @@
         <v>4909</v>
       </c>
       <c r="J803" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.45">
@@ -39488,7 +39488,7 @@
         <v>4909</v>
       </c>
       <c r="J806" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.45">
@@ -39549,7 +39549,7 @@
         <v>4909</v>
       </c>
       <c r="J808" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.45">
@@ -39970,7 +39970,7 @@
         <v>4909</v>
       </c>
       <c r="J822" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.45">
@@ -40002,7 +40002,7 @@
         <v>4909</v>
       </c>
       <c r="J823" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.45">
@@ -40121,7 +40121,7 @@
         <v>4909</v>
       </c>
       <c r="J827" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.45">
@@ -40153,7 +40153,7 @@
         <v>4909</v>
       </c>
       <c r="J828" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.45">
@@ -40246,7 +40246,7 @@
         <v>4909</v>
       </c>
       <c r="J831" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.45">
@@ -40484,7 +40484,7 @@
         <v>4909</v>
       </c>
       <c r="J839" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.45">
@@ -40516,7 +40516,7 @@
         <v>4909</v>
       </c>
       <c r="J840" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.45">
@@ -40548,7 +40548,7 @@
         <v>4909</v>
       </c>
       <c r="J841" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.45">
@@ -40580,7 +40580,7 @@
         <v>4909</v>
       </c>
       <c r="J842" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.45">
@@ -40612,7 +40612,7 @@
         <v>4909</v>
       </c>
       <c r="J843" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.45">
@@ -40676,7 +40676,7 @@
         <v>4909</v>
       </c>
       <c r="J845" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.45">
@@ -40708,7 +40708,7 @@
         <v>4909</v>
       </c>
       <c r="J846" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.45">
@@ -40943,7 +40943,7 @@
         <v>4909</v>
       </c>
       <c r="J854" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.45">
@@ -40975,7 +40975,7 @@
         <v>4909</v>
       </c>
       <c r="J855" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.45">
@@ -41065,7 +41065,7 @@
         <v>4909</v>
       </c>
       <c r="J858" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.45">
@@ -41126,7 +41126,7 @@
         <v>4909</v>
       </c>
       <c r="J860" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.45">
@@ -41158,7 +41158,7 @@
         <v>4909</v>
       </c>
       <c r="J861" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.45">
@@ -41422,7 +41422,7 @@
         <v>4909</v>
       </c>
       <c r="J870" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.45">
@@ -41454,7 +41454,7 @@
         <v>4909</v>
       </c>
       <c r="J871" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.45">
@@ -41515,7 +41515,7 @@
         <v>4909</v>
       </c>
       <c r="J873" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.45">
@@ -41547,7 +41547,7 @@
         <v>4909</v>
       </c>
       <c r="J874" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.45">
@@ -41579,7 +41579,7 @@
         <v>4909</v>
       </c>
       <c r="J875" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.45">
@@ -41640,7 +41640,7 @@
         <v>4909</v>
       </c>
       <c r="J877" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.45">
@@ -41672,7 +41672,7 @@
         <v>4909</v>
       </c>
       <c r="J878" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.45">
@@ -41733,7 +41733,7 @@
         <v>4909</v>
       </c>
       <c r="J880" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.45">
@@ -41852,7 +41852,7 @@
         <v>4909</v>
       </c>
       <c r="J884" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.45">
@@ -41942,7 +41942,7 @@
         <v>4909</v>
       </c>
       <c r="J887" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.45">
@@ -42032,7 +42032,7 @@
         <v>4909</v>
       </c>
       <c r="J890" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.45">
@@ -42212,7 +42212,7 @@
         <v>4909</v>
       </c>
       <c r="J896" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.45">
@@ -58679,7 +58679,7 @@
         <v>4909</v>
       </c>
       <c r="J1439" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.45">
@@ -58711,7 +58711,7 @@
         <v>4909</v>
       </c>
       <c r="J1440" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.45">
@@ -58920,7 +58920,7 @@
         <v>4909</v>
       </c>
       <c r="J1447" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.45">
@@ -60792,7 +60792,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1509" xr:uid="{28A82915-5B23-4FCE-8877-1D8659EEB110}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1438 J1448:J1509" xr:uid="{28A82915-5B23-4FCE-8877-1D8659EEB110}">
       <formula1>$R$2:$R$10</formula1>
     </dataValidation>
   </dataValidations>

--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="415" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D61DB18C-6374-413C-A72F-5C1BCC1A5458}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{713FFD76-C0CD-4D74-9B06-3F58DB270CD5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15179,18 +15179,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="82.86328125" customWidth="1"/>
-    <col min="7" max="7" width="199.73046875" customWidth="1"/>
+    <col min="3" max="3" width="62.265625" customWidth="1"/>
+    <col min="4" max="4" width="60.796875" customWidth="1"/>
+    <col min="7" max="7" width="15.73046875" customWidth="1"/>
     <col min="8" max="8" width="6.796875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="3.06640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
@@ -15222,7 +15224,7 @@
         <v>4912</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>895</v>
       </c>
@@ -15312,7 +15314,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>243</v>
       </c>
@@ -15344,7 +15346,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>17</v>
       </c>
@@ -15376,7 +15378,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1211</v>
       </c>
@@ -15437,7 +15439,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -15469,7 +15471,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>355</v>
       </c>
@@ -15559,7 +15561,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1363</v>
       </c>
@@ -15620,7 +15622,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>136</v>
       </c>
@@ -15652,7 +15654,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>715</v>
       </c>
@@ -15684,7 +15686,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>651</v>
       </c>
@@ -15745,7 +15747,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>873</v>
       </c>
@@ -15864,7 +15866,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>298</v>
       </c>
@@ -15896,7 +15898,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1412</v>
       </c>
@@ -16131,7 +16133,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>1113</v>
       </c>
@@ -16221,7 +16223,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>1138</v>
       </c>
@@ -16253,7 +16255,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>65</v>
       </c>
@@ -16314,7 +16316,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>203</v>
       </c>
@@ -16520,7 +16522,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -16639,7 +16641,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>754</v>
       </c>
@@ -16671,7 +16673,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>1207</v>
       </c>
@@ -16761,7 +16763,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>1459</v>
       </c>
@@ -16822,7 +16824,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>699</v>
       </c>
@@ -16883,7 +16885,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>552</v>
       </c>
@@ -16915,7 +16917,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>422</v>
       </c>
@@ -16976,7 +16978,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>1081</v>
       </c>
@@ -17008,7 +17010,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>601</v>
       </c>
@@ -17069,7 +17071,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>950</v>
       </c>
@@ -17130,7 +17132,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>752</v>
       </c>
@@ -17162,7 +17164,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>1251</v>
       </c>
@@ -17194,7 +17196,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>123</v>
       </c>
@@ -17226,7 +17228,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>769</v>
       </c>
@@ -17287,7 +17289,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>1230</v>
       </c>
@@ -17435,7 +17437,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>1167</v>
       </c>
@@ -17467,7 +17469,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>317</v>
       </c>
@@ -17499,7 +17501,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>929</v>
       </c>
@@ -17589,7 +17591,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>1481</v>
       </c>
@@ -17621,7 +17623,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>582</v>
       </c>
@@ -17653,7 +17655,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>641</v>
       </c>
@@ -17685,7 +17687,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>1116</v>
       </c>
@@ -17775,7 +17777,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>1389</v>
       </c>
@@ -17923,7 +17925,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>327</v>
       </c>
@@ -17955,7 +17957,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>746</v>
       </c>
@@ -18161,7 +18163,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>1250</v>
       </c>
@@ -18309,7 +18311,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>931</v>
       </c>
@@ -18341,7 +18343,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>1193</v>
       </c>
@@ -18402,7 +18404,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>241</v>
       </c>
@@ -18434,7 +18436,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>901</v>
       </c>
@@ -18582,7 +18584,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>1423</v>
       </c>
@@ -18730,7 +18732,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>168</v>
       </c>
@@ -18878,7 +18880,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>399</v>
       </c>
@@ -18910,7 +18912,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>1087</v>
       </c>
@@ -18942,7 +18944,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>1282</v>
       </c>
@@ -18974,7 +18976,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>837</v>
       </c>
@@ -19006,7 +19008,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>1055</v>
       </c>
@@ -19038,7 +19040,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>820</v>
       </c>
@@ -19070,7 +19072,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>533</v>
       </c>
@@ -19102,7 +19104,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>987</v>
       </c>
@@ -19163,7 +19165,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>22</v>
       </c>
@@ -19253,7 +19255,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>80</v>
       </c>
@@ -19285,7 +19287,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>1263</v>
       </c>
@@ -19317,7 +19319,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>150</v>
       </c>
@@ -19349,7 +19351,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>13</v>
       </c>
@@ -19555,7 +19557,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>1254</v>
       </c>
@@ -19587,7 +19589,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>971</v>
       </c>
@@ -19735,7 +19737,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>284</v>
       </c>
@@ -19767,7 +19769,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>1157</v>
       </c>
@@ -19857,7 +19859,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>967</v>
       </c>
@@ -19947,7 +19949,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>1166</v>
       </c>
@@ -20037,7 +20039,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>916</v>
       </c>
@@ -20127,7 +20129,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>424</v>
       </c>
@@ -20188,7 +20190,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>276</v>
       </c>
@@ -20307,7 +20309,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>838</v>
       </c>
@@ -20339,7 +20341,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>225</v>
       </c>
@@ -20371,7 +20373,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>897</v>
       </c>
@@ -20403,7 +20405,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>1438</v>
       </c>
@@ -20435,7 +20437,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>1371</v>
       </c>
@@ -20467,7 +20469,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>1487</v>
       </c>
@@ -20557,7 +20559,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>1144</v>
       </c>
@@ -20589,7 +20591,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>302</v>
       </c>
@@ -20708,7 +20710,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>546</v>
       </c>
@@ -20740,7 +20742,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>253</v>
       </c>
@@ -20830,7 +20832,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>843</v>
       </c>
@@ -20891,7 +20893,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>1424</v>
       </c>
@@ -20952,7 +20954,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>543</v>
       </c>
@@ -21158,7 +21160,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>957</v>
       </c>
@@ -21219,7 +21221,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>176</v>
       </c>
@@ -21309,7 +21311,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>642</v>
       </c>
@@ -21341,7 +21343,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>156</v>
       </c>
@@ -21373,7 +21375,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>84</v>
       </c>
@@ -21463,7 +21465,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>806</v>
       </c>
@@ -21495,7 +21497,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>1301</v>
       </c>
@@ -21875,7 +21877,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>614</v>
       </c>
@@ -21994,7 +21996,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>1244</v>
       </c>
@@ -22026,7 +22028,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>634</v>
       </c>
@@ -22058,7 +22060,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>1357</v>
       </c>
@@ -22090,7 +22092,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>1331</v>
       </c>
@@ -22151,7 +22153,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>56</v>
       </c>
@@ -22212,7 +22214,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>1431</v>
       </c>
@@ -22331,7 +22333,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>776</v>
       </c>
@@ -22363,7 +22365,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>670</v>
       </c>
@@ -22453,7 +22455,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>618</v>
       </c>
@@ -22514,7 +22516,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
         <v>688</v>
       </c>
@@ -22546,7 +22548,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
         <v>529</v>
       </c>
@@ -22578,7 +22580,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
         <v>272</v>
       </c>
@@ -22639,7 +22641,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
         <v>1245</v>
       </c>
@@ -22671,7 +22673,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
         <v>1448</v>
       </c>
@@ -22703,7 +22705,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
         <v>257</v>
       </c>
@@ -22880,7 +22882,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
         <v>1335</v>
       </c>
@@ -22941,7 +22943,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
         <v>817</v>
       </c>
@@ -23002,7 +23004,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
         <v>1492</v>
       </c>
@@ -23092,7 +23094,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
         <v>1385</v>
       </c>
@@ -23269,7 +23271,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A268" s="1">
         <v>1466</v>
       </c>
@@ -23417,7 +23419,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A273" s="1">
         <v>1054</v>
       </c>
@@ -23449,7 +23451,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A274" s="1">
         <v>324</v>
       </c>
@@ -23539,7 +23541,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A277" s="1">
         <v>1397</v>
       </c>
@@ -23571,7 +23573,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A278" s="1">
         <v>802</v>
       </c>
@@ -23603,7 +23605,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A279" s="1">
         <v>395</v>
       </c>
@@ -23664,7 +23666,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="1">
         <v>386</v>
       </c>
@@ -23696,7 +23698,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A282" s="1">
         <v>570</v>
       </c>
@@ -23815,7 +23817,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A286" s="1">
         <v>127</v>
       </c>
@@ -23847,7 +23849,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A287" s="1">
         <v>685</v>
       </c>
@@ -23937,7 +23939,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A290" s="1">
         <v>1257</v>
       </c>
@@ -23969,7 +23971,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A291" s="1">
         <v>245</v>
       </c>
@@ -24059,7 +24061,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A294" s="1">
         <v>476</v>
       </c>
@@ -24120,7 +24122,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A296" s="1">
         <v>128</v>
       </c>
@@ -24152,7 +24154,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A297" s="1">
         <v>774</v>
       </c>
@@ -24184,7 +24186,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A298" s="1">
         <v>804</v>
       </c>
@@ -24245,7 +24247,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A300" s="1">
         <v>821</v>
       </c>
@@ -24364,7 +24366,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A304" s="1">
         <v>826</v>
       </c>
@@ -24396,7 +24398,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A305" s="1">
         <v>705</v>
       </c>
@@ -24428,7 +24430,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A306" s="1">
         <v>350</v>
       </c>
@@ -24663,7 +24665,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A314" s="1">
         <v>1300</v>
       </c>
@@ -24753,7 +24755,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A317" s="1">
         <v>554</v>
       </c>
@@ -24785,7 +24787,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A318" s="1">
         <v>726</v>
       </c>
@@ -24817,7 +24819,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="1">
         <v>1133</v>
       </c>
@@ -24849,7 +24851,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A320" s="1">
         <v>279</v>
       </c>
@@ -24939,7 +24941,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A323" s="1">
         <v>1111</v>
       </c>
@@ -25000,7 +25002,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -25032,7 +25034,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A326" s="1">
         <v>347</v>
       </c>
@@ -25064,7 +25066,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A327" s="1">
         <v>1005</v>
       </c>
@@ -25125,7 +25127,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A329" s="1">
         <v>697</v>
       </c>
@@ -25157,7 +25159,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A330" s="1">
         <v>1180</v>
       </c>
@@ -25276,7 +25278,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A334" s="1">
         <v>73</v>
       </c>
@@ -25308,7 +25310,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A335" s="1">
         <v>459</v>
       </c>
@@ -25572,7 +25574,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A344" s="1">
         <v>370</v>
       </c>
@@ -25604,7 +25606,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A345" s="1">
         <v>447</v>
       </c>
@@ -25636,7 +25638,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A346" s="1">
         <v>479</v>
       </c>
@@ -25726,7 +25728,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A349" s="1">
         <v>813</v>
       </c>
@@ -25816,7 +25818,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A352" s="1">
         <v>1118</v>
       </c>
@@ -25877,7 +25879,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A354" s="1">
         <v>1327</v>
       </c>
@@ -25967,7 +25969,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A357" s="1">
         <v>1429</v>
       </c>
@@ -26086,7 +26088,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A361" s="1">
         <v>1037</v>
       </c>
@@ -26234,7 +26236,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A366" s="1">
         <v>1295</v>
       </c>
@@ -26440,7 +26442,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A373" s="1">
         <v>126</v>
       </c>
@@ -26733,7 +26735,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A383" s="1">
         <v>997</v>
       </c>
@@ -26765,7 +26767,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A384" s="1">
         <v>1268</v>
       </c>
@@ -26826,7 +26828,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A386" s="1">
         <v>1183</v>
       </c>
@@ -26887,7 +26889,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A388" s="1">
         <v>935</v>
       </c>
@@ -26977,7 +26979,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A391" s="1">
         <v>1411</v>
       </c>
@@ -27096,7 +27098,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A395" s="1">
         <v>646</v>
       </c>
@@ -27157,7 +27159,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A397" s="1">
         <v>606</v>
       </c>
@@ -27247,7 +27249,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A400" s="1">
         <v>332</v>
       </c>
@@ -27279,7 +27281,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A401" s="1">
         <v>30</v>
       </c>
@@ -27398,7 +27400,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A405" s="1">
         <v>47</v>
       </c>
@@ -27517,7 +27519,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A409" s="1">
         <v>74</v>
       </c>
@@ -27578,7 +27580,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A411" s="1">
         <v>133</v>
       </c>
@@ -27668,7 +27670,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A414" s="1">
         <v>288</v>
       </c>
@@ -27758,7 +27760,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A417" s="1">
         <v>304</v>
       </c>
@@ -27819,7 +27821,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A419" s="1">
         <v>702</v>
       </c>
@@ -27851,7 +27853,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A420" s="1">
         <v>750</v>
       </c>
@@ -27941,7 +27943,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A423" s="1">
         <v>876</v>
       </c>
@@ -27973,7 +27975,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A424" s="1">
         <v>882</v>
       </c>
@@ -28005,7 +28007,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A425" s="1">
         <v>925</v>
       </c>
@@ -28037,7 +28039,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A426" s="1">
         <v>951</v>
       </c>
@@ -28185,7 +28187,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A431" s="1">
         <v>963</v>
       </c>
@@ -28217,7 +28219,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A432" s="1">
         <v>1030</v>
       </c>
@@ -28249,7 +28251,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A433" s="1">
         <v>1132</v>
       </c>
@@ -28455,7 +28457,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A440" s="1">
         <v>1173</v>
       </c>
@@ -28516,7 +28518,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A442" s="1">
         <v>1196</v>
       </c>
@@ -28577,7 +28579,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A444" s="1">
         <v>1225</v>
       </c>
@@ -28667,7 +28669,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A447" s="1">
         <v>1373</v>
       </c>
@@ -28728,7 +28730,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A449" s="1">
         <v>1470</v>
       </c>
@@ -28760,7 +28762,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A450" s="1">
         <v>226</v>
       </c>
@@ -28850,7 +28852,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A453" s="1">
         <v>36</v>
       </c>
@@ -29085,7 +29087,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A461" s="1">
         <v>1399</v>
       </c>
@@ -29320,7 +29322,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A469" s="1">
         <v>285</v>
       </c>
@@ -29584,7 +29586,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A478" s="1">
         <v>1342</v>
       </c>
@@ -29674,7 +29676,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A481" s="1">
         <v>61</v>
       </c>
@@ -29822,7 +29824,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A486" s="1">
         <v>1329</v>
       </c>
@@ -30028,7 +30030,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A493" s="1">
         <v>1092</v>
       </c>
@@ -30089,7 +30091,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A495" s="1">
         <v>517</v>
       </c>
@@ -30266,7 +30268,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A501" s="1">
         <v>732</v>
       </c>
@@ -30414,7 +30416,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A506" s="1">
         <v>220</v>
       </c>
@@ -30649,7 +30651,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A514" s="1">
         <v>796</v>
       </c>
@@ -30681,7 +30683,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A515" s="1">
         <v>1356</v>
       </c>
@@ -30742,7 +30744,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A517" s="1">
         <v>181</v>
       </c>
@@ -30803,7 +30805,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A519" s="1">
         <v>782</v>
       </c>
@@ -30893,7 +30895,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A522" s="1">
         <v>1484</v>
       </c>
@@ -31012,7 +31014,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A526" s="1">
         <v>825</v>
       </c>
@@ -31044,7 +31046,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A527" s="1">
         <v>173</v>
       </c>
@@ -31105,7 +31107,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A529" s="1">
         <v>842</v>
       </c>
@@ -31166,7 +31168,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A531" s="1">
         <v>102</v>
       </c>
@@ -31285,7 +31287,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A535" s="1">
         <v>538</v>
       </c>
@@ -31346,7 +31348,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A537" s="1">
         <v>121</v>
       </c>
@@ -31436,7 +31438,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A540" s="1">
         <v>1176</v>
       </c>
@@ -31526,7 +31528,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A543" s="1">
         <v>1011</v>
       </c>
@@ -31587,7 +31589,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A545" s="1">
         <v>1348</v>
       </c>
@@ -31677,7 +31679,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A548" s="1">
         <v>43</v>
       </c>
@@ -31767,7 +31769,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A551" s="1">
         <v>231</v>
       </c>
@@ -31857,7 +31859,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A554" s="1">
         <v>928</v>
       </c>
@@ -31889,7 +31891,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A555" s="1">
         <v>89</v>
       </c>
@@ -31921,7 +31923,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A556" s="1">
         <v>1407</v>
       </c>
@@ -32011,7 +32013,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A559" s="1">
         <v>1298</v>
       </c>
@@ -32072,7 +32074,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A561" s="1">
         <v>445</v>
       </c>
@@ -32133,7 +32135,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A563" s="1">
         <v>1401</v>
       </c>
@@ -32310,7 +32312,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A569" s="1">
         <v>417</v>
       </c>
@@ -32342,7 +32344,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A570" s="1">
         <v>894</v>
       </c>
@@ -32374,7 +32376,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A571" s="1">
         <v>1114</v>
       </c>
@@ -32406,7 +32408,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A572" s="1">
         <v>484</v>
       </c>
@@ -32467,7 +32469,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A574" s="1">
         <v>772</v>
       </c>
@@ -32499,7 +32501,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A575" s="1">
         <v>853</v>
       </c>
@@ -32647,7 +32649,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A580" s="1">
         <v>909</v>
       </c>
@@ -32679,7 +32681,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A581" s="1">
         <v>1039</v>
       </c>
@@ -32740,7 +32742,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A583" s="1">
         <v>1175</v>
       </c>
@@ -32772,7 +32774,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A584" s="1">
         <v>1178</v>
       </c>
@@ -32920,7 +32922,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A589" s="1">
         <v>1491</v>
       </c>
@@ -33213,7 +33215,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A599" s="1">
         <v>578</v>
       </c>
@@ -33332,7 +33334,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A603" s="1">
         <v>936</v>
       </c>
@@ -33393,7 +33395,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A605" s="1">
         <v>53</v>
       </c>
@@ -33483,7 +33485,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A608" s="1">
         <v>134</v>
       </c>
@@ -33544,7 +33546,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A610" s="1">
         <v>292</v>
       </c>
@@ -33634,7 +33636,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A613" s="1">
         <v>182</v>
       </c>
@@ -33695,7 +33697,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A615" s="1">
         <v>859</v>
       </c>
@@ -33727,7 +33729,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A616" s="1">
         <v>1366</v>
       </c>
@@ -33759,7 +33761,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A617" s="1">
         <v>991</v>
       </c>
@@ -33820,7 +33822,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A619" s="1">
         <v>1449</v>
       </c>
@@ -33852,7 +33854,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A620" s="1">
         <v>196</v>
       </c>
@@ -33913,7 +33915,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A622" s="1">
         <v>1110</v>
       </c>
@@ -34003,7 +34005,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A625" s="1">
         <v>1286</v>
       </c>
@@ -34035,7 +34037,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A626" s="1">
         <v>875</v>
       </c>
@@ -34067,7 +34069,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A627" s="1">
         <v>1347</v>
       </c>
@@ -34186,7 +34188,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A631" s="1">
         <v>1249</v>
       </c>
@@ -34276,7 +34278,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A634" s="1">
         <v>1145</v>
       </c>
@@ -34337,7 +34339,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A636" s="1">
         <v>164</v>
       </c>
@@ -34369,7 +34371,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A637" s="1">
         <v>608</v>
       </c>
@@ -34401,7 +34403,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A638" s="1">
         <v>15</v>
       </c>
@@ -34520,7 +34522,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A642" s="1">
         <v>189</v>
       </c>
@@ -34552,7 +34554,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A643" s="1">
         <v>260</v>
       </c>
@@ -34584,7 +34586,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A644" s="1">
         <v>1060</v>
       </c>
@@ -34645,7 +34647,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A646" s="1">
         <v>1134</v>
       </c>
@@ -34706,7 +34708,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A648" s="1">
         <v>1184</v>
       </c>
@@ -34854,7 +34856,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A653" s="1">
         <v>1284</v>
       </c>
@@ -34973,7 +34975,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A657" s="1">
         <v>1349</v>
       </c>
@@ -35295,7 +35297,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A668" s="1">
         <v>1384</v>
       </c>
@@ -35356,7 +35358,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A670" s="1">
         <v>704</v>
       </c>
@@ -35417,7 +35419,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A672" s="1">
         <v>325</v>
       </c>
@@ -35594,7 +35596,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A678" s="1">
         <v>572</v>
       </c>
@@ -35626,7 +35628,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A679" s="1">
         <v>431</v>
       </c>
@@ -35658,7 +35660,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A680" s="1">
         <v>1031</v>
       </c>
@@ -35690,7 +35692,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A681" s="1">
         <v>421</v>
       </c>
@@ -35867,7 +35869,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A687" s="1">
         <v>389</v>
       </c>
@@ -35957,7 +35959,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A690" s="1">
         <v>611</v>
       </c>
@@ -35989,7 +35991,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A691" s="1">
         <v>1323</v>
       </c>
@@ -36137,7 +36139,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A696" s="1">
         <v>984</v>
       </c>
@@ -36198,7 +36200,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A698" s="1">
         <v>1333</v>
       </c>
@@ -36230,7 +36232,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A699" s="1">
         <v>34</v>
       </c>
@@ -36262,7 +36264,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A700" s="1">
         <v>559</v>
       </c>
@@ -36294,7 +36296,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A701" s="1">
         <v>81</v>
       </c>
@@ -36384,7 +36386,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A704" s="1">
         <v>833</v>
       </c>
@@ -36445,7 +36447,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A706" s="1">
         <v>790</v>
       </c>
@@ -36477,7 +36479,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A707" s="1">
         <v>1164</v>
       </c>
@@ -36567,7 +36569,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A710" s="1">
         <v>235</v>
       </c>
@@ -36773,7 +36775,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A717" s="1">
         <v>515</v>
       </c>
@@ -36892,7 +36894,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A721" s="1">
         <v>1326</v>
       </c>
@@ -37040,7 +37042,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A726" s="1">
         <v>1455</v>
       </c>
@@ -37072,7 +37074,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A727" s="1">
         <v>731</v>
       </c>
@@ -37104,7 +37106,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A728" s="1">
         <v>666</v>
       </c>
@@ -37252,7 +37254,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A733" s="1">
         <v>64</v>
       </c>
@@ -37284,7 +37286,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A734" s="1">
         <v>130</v>
       </c>
@@ -37316,7 +37318,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A735" s="1">
         <v>1161</v>
       </c>
@@ -37348,7 +37350,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A736" s="1">
         <v>430</v>
       </c>
@@ -37380,7 +37382,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A737" s="1">
         <v>398</v>
       </c>
@@ -37441,7 +37443,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A739" s="1">
         <v>1377</v>
       </c>
@@ -37560,7 +37562,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A743" s="1">
         <v>698</v>
       </c>
@@ -37621,7 +37623,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A745" s="1">
         <v>801</v>
       </c>
@@ -37711,7 +37713,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A748" s="1">
         <v>79</v>
       </c>
@@ -37801,7 +37803,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A751" s="1">
         <v>1344</v>
       </c>
@@ -37833,7 +37835,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A752" s="1">
         <v>679</v>
       </c>
@@ -37894,7 +37896,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A754" s="1">
         <v>364</v>
       </c>
@@ -37955,7 +37957,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A756" s="1">
         <v>359</v>
       </c>
@@ -38103,7 +38105,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A761" s="1">
         <v>1365</v>
       </c>
@@ -38309,7 +38311,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A768" s="1">
         <v>105</v>
       </c>
@@ -38399,7 +38401,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A771" s="1">
         <v>198</v>
       </c>
@@ -38489,7 +38491,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A774" s="1">
         <v>227</v>
       </c>
@@ -38550,7 +38552,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A776" s="1">
         <v>277</v>
       </c>
@@ -38582,7 +38584,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A777" s="1">
         <v>343</v>
       </c>
@@ -38614,7 +38616,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A778" s="1">
         <v>352</v>
       </c>
@@ -38733,7 +38735,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A782" s="1">
         <v>964</v>
       </c>
@@ -38765,7 +38767,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A783" s="1">
         <v>1231</v>
       </c>
@@ -38797,7 +38799,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A784" s="1">
         <v>603</v>
       </c>
@@ -39032,7 +39034,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A792" s="1">
         <v>737</v>
       </c>
@@ -39180,7 +39182,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A797" s="1">
         <v>1214</v>
       </c>
@@ -39212,7 +39214,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A798" s="1">
         <v>412</v>
       </c>
@@ -39331,7 +39333,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A802" s="1">
         <v>1096</v>
       </c>
@@ -39363,7 +39365,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A803" s="1">
         <v>982</v>
       </c>
@@ -39395,7 +39397,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A804" s="1">
         <v>1247</v>
       </c>
@@ -39427,7 +39429,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A805" s="1">
         <v>839</v>
       </c>
@@ -39459,7 +39461,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A806" s="1">
         <v>912</v>
       </c>
@@ -39520,7 +39522,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A808" s="1">
         <v>954</v>
       </c>
@@ -39697,7 +39699,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A814" s="1">
         <v>934</v>
       </c>
@@ -39729,7 +39731,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A815" s="1">
         <v>1369</v>
       </c>
@@ -39819,7 +39821,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="818" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A818" s="1">
         <v>624</v>
       </c>
@@ -39851,7 +39853,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="819" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A819" s="1">
         <v>1426</v>
       </c>
@@ -39941,7 +39943,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="822" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A822" s="1">
         <v>678</v>
       </c>
@@ -39973,7 +39975,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="823" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A823" s="1">
         <v>451</v>
       </c>
@@ -40092,7 +40094,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="827" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A827" s="1">
         <v>1361</v>
       </c>
@@ -40124,7 +40126,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="828" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A828" s="1">
         <v>960</v>
       </c>
@@ -40185,7 +40187,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="830" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A830" s="1">
         <v>499</v>
       </c>
@@ -40217,7 +40219,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="831" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A831" s="1">
         <v>795</v>
       </c>
@@ -40336,7 +40338,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="835" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A835" s="1">
         <v>342</v>
       </c>
@@ -40455,7 +40457,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="839" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A839" s="1">
         <v>159</v>
       </c>
@@ -40487,7 +40489,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="840" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A840" s="1">
         <v>206</v>
       </c>
@@ -40519,7 +40521,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="841" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A841" s="1">
         <v>892</v>
       </c>
@@ -40551,7 +40553,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="842" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A842" s="1">
         <v>952</v>
       </c>
@@ -40583,7 +40585,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="843" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A843" s="1">
         <v>63</v>
       </c>
@@ -40615,7 +40617,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="844" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A844" s="1">
         <v>1056</v>
       </c>
@@ -40647,7 +40649,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="845" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A845" s="1">
         <v>177</v>
       </c>
@@ -40679,7 +40681,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="846" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A846" s="1">
         <v>1072</v>
       </c>
@@ -40914,7 +40916,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="854" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A854" s="1">
         <v>236</v>
       </c>
@@ -40946,7 +40948,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="855" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A855" s="1">
         <v>328</v>
       </c>
@@ -41036,7 +41038,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="858" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A858" s="1">
         <v>553</v>
       </c>
@@ -41097,7 +41099,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="860" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A860" s="1">
         <v>58</v>
       </c>
@@ -41129,7 +41131,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="861" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A861" s="1">
         <v>97</v>
       </c>
@@ -41393,7 +41395,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="870" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A870" s="1">
         <v>144</v>
       </c>
@@ -41425,7 +41427,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="871" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A871" s="1">
         <v>172</v>
       </c>
@@ -41486,7 +41488,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="873" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A873" s="1">
         <v>977</v>
       </c>
@@ -41518,7 +41520,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="874" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A874" s="1">
         <v>1001</v>
       </c>
@@ -41550,7 +41552,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="875" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A875" s="1">
         <v>525</v>
       </c>
@@ -41611,7 +41613,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="877" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A877" s="1">
         <v>632</v>
       </c>
@@ -41643,7 +41645,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="878" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A878" s="1">
         <v>1380</v>
       </c>
@@ -41704,7 +41706,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="880" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A880" s="1">
         <v>7</v>
       </c>
@@ -41823,7 +41825,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="884" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A884" s="1">
         <v>116</v>
       </c>
@@ -41913,7 +41915,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="887" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A887" s="1">
         <v>1112</v>
       </c>
@@ -42003,7 +42005,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="890" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A890" s="1">
         <v>1321</v>
       </c>
@@ -42122,7 +42124,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="894" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A894" s="1">
         <v>1241</v>
       </c>
@@ -42183,7 +42185,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="896" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A896" s="1">
         <v>549</v>
       </c>
@@ -42215,7 +42217,7 @@
         <v>4917</v>
       </c>
     </row>
-    <row r="897" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A897" s="1">
         <v>1066</v>
       </c>
@@ -42276,7 +42278,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="899" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A899" s="1">
         <v>696</v>
       </c>
@@ -42366,7 +42368,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="902" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A902" s="1">
         <v>1185</v>
       </c>
@@ -42398,7 +42400,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="903" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A903" s="1">
         <v>924</v>
       </c>
@@ -42459,7 +42461,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="905" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A905" s="1">
         <v>617</v>
       </c>
@@ -42636,7 +42638,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="911" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A911" s="1">
         <v>135</v>
       </c>
@@ -42726,7 +42728,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="914" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A914" s="1">
         <v>885</v>
       </c>
@@ -42845,7 +42847,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="918" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A918" s="1">
         <v>597</v>
       </c>
@@ -42906,7 +42908,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="920" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A920" s="1">
         <v>295</v>
       </c>
@@ -42967,7 +42969,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="922" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A922" s="1">
         <v>1023</v>
       </c>
@@ -43028,7 +43030,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="924" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A924" s="1">
         <v>640</v>
       </c>
@@ -43089,7 +43091,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="926" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -43121,7 +43123,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="927" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A927" s="1">
         <v>4</v>
       </c>
@@ -43153,7 +43155,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="928" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A928" s="1">
         <v>5</v>
       </c>
@@ -43214,7 +43216,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="930" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A930" s="1">
         <v>8</v>
       </c>
@@ -43246,7 +43248,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="931" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A931" s="1">
         <v>11</v>
       </c>
@@ -43278,7 +43280,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="932" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A932" s="1">
         <v>14</v>
       </c>
@@ -43310,7 +43312,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="933" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A933" s="1">
         <v>21</v>
       </c>
@@ -43400,7 +43402,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="936" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A936" s="1">
         <v>33</v>
       </c>
@@ -43432,7 +43434,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="937" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A937" s="1">
         <v>48</v>
       </c>
@@ -43464,7 +43466,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="938" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A938" s="1">
         <v>51</v>
       </c>
@@ -43757,7 +43759,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="948" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A948" s="1">
         <v>55</v>
       </c>
@@ -43876,7 +43878,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="952" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A952" s="1">
         <v>59</v>
       </c>
@@ -43908,7 +43910,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="953" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A953" s="1">
         <v>66</v>
       </c>
@@ -43940,7 +43942,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="954" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A954" s="1">
         <v>68</v>
       </c>
@@ -44001,7 +44003,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="956" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A956" s="1">
         <v>75</v>
       </c>
@@ -44033,7 +44035,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="957" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A957" s="1">
         <v>78</v>
       </c>
@@ -44094,7 +44096,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="959" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A959" s="1">
         <v>90</v>
       </c>
@@ -44184,7 +44186,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="962" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A962" s="1">
         <v>103</v>
       </c>
@@ -44245,7 +44247,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="964" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A964" s="1">
         <v>106</v>
       </c>
@@ -44277,7 +44279,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="965" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A965" s="1">
         <v>122</v>
       </c>
@@ -44309,7 +44311,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="966" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A966" s="1">
         <v>124</v>
       </c>
@@ -44341,7 +44343,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="967" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A967" s="1">
         <v>143</v>
       </c>
@@ -44373,7 +44375,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="968" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A968" s="1">
         <v>153</v>
       </c>
@@ -44405,7 +44407,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="969" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A969" s="1">
         <v>162</v>
       </c>
@@ -44495,7 +44497,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="972" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A972" s="1">
         <v>169</v>
       </c>
@@ -44527,7 +44529,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="973" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A973" s="1">
         <v>170</v>
       </c>
@@ -44588,7 +44590,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="975" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A975" s="1">
         <v>171</v>
       </c>
@@ -44707,7 +44709,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="979" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A979" s="1">
         <v>185</v>
       </c>
@@ -44739,7 +44741,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="980" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A980" s="1">
         <v>187</v>
       </c>
@@ -44829,7 +44831,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="983" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A983" s="1">
         <v>202</v>
       </c>
@@ -44861,7 +44863,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="984" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A984" s="1">
         <v>207</v>
       </c>
@@ -44922,7 +44924,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="986" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A986" s="1">
         <v>224</v>
       </c>
@@ -45012,7 +45014,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="989" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A989" s="1">
         <v>229</v>
       </c>
@@ -45131,7 +45133,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="993" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A993" s="1">
         <v>239</v>
       </c>
@@ -45221,7 +45223,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="996" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A996" s="1">
         <v>242</v>
       </c>
@@ -45311,7 +45313,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="999" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A999" s="1">
         <v>255</v>
       </c>
@@ -45372,7 +45374,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1001" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1001" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1001" s="1">
         <v>271</v>
       </c>
@@ -45433,7 +45435,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1003" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1003" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1003" s="1">
         <v>275</v>
       </c>
@@ -45552,7 +45554,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1007" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1007" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1007" s="1">
         <v>280</v>
       </c>
@@ -45584,7 +45586,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1008" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1008" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1008" s="1">
         <v>289</v>
       </c>
@@ -45703,7 +45705,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1012" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1012" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1012" s="1">
         <v>294</v>
       </c>
@@ -45735,7 +45737,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1013" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1013" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1013" s="1">
         <v>312</v>
       </c>
@@ -45796,7 +45798,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1015" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1015" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1015" s="1">
         <v>315</v>
       </c>
@@ -45886,7 +45888,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1018" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1018" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1018" s="1">
         <v>316</v>
       </c>
@@ -46034,7 +46036,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1023" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1023" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1023" s="1">
         <v>318</v>
       </c>
@@ -46066,7 +46068,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1024" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1024" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1024" s="1">
         <v>321</v>
       </c>
@@ -46098,7 +46100,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1025" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1025" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1025" s="1">
         <v>344</v>
       </c>
@@ -46130,7 +46132,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1026" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1026" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1026" s="1">
         <v>371</v>
       </c>
@@ -46307,7 +46309,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1032" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1032" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1032" s="1">
         <v>382</v>
       </c>
@@ -46339,7 +46341,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1033" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1033" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1033" s="1">
         <v>384</v>
       </c>
@@ -46429,7 +46431,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1036" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1036" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1036" s="1">
         <v>403</v>
       </c>
@@ -46519,7 +46521,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1039" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1039" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1039" s="1">
         <v>407</v>
       </c>
@@ -46580,7 +46582,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1041" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1041" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1041" s="1">
         <v>409</v>
       </c>
@@ -46641,7 +46643,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1043" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1043" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1043" s="1">
         <v>415</v>
       </c>
@@ -46789,7 +46791,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1048" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1048" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1048" s="1">
         <v>418</v>
       </c>
@@ -46821,7 +46823,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1049" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1049" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1049" s="1">
         <v>429</v>
       </c>
@@ -46969,7 +46971,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1054" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1054" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1054" s="1">
         <v>438</v>
       </c>
@@ -47030,7 +47032,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1056" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1056" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1056" s="1">
         <v>440</v>
       </c>
@@ -47062,7 +47064,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1057" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1057" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1057" s="1">
         <v>442</v>
       </c>
@@ -47094,7 +47096,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1058" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1058" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1058" s="1">
         <v>448</v>
       </c>
@@ -47126,7 +47128,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1059" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1059" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1059" s="1">
         <v>467</v>
       </c>
@@ -47187,7 +47189,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1061" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1061" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1061" s="1">
         <v>491</v>
       </c>
@@ -47219,7 +47221,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1062" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1062" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1062" s="1">
         <v>493</v>
       </c>
@@ -47367,7 +47369,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1067" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1067" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1067" s="1">
         <v>504</v>
       </c>
@@ -47399,7 +47401,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1068" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1068" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1068" s="1">
         <v>513</v>
       </c>
@@ -47518,7 +47520,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1072" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1072" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1072" s="1">
         <v>520</v>
       </c>
@@ -47579,7 +47581,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1074" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1074" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1074" s="1">
         <v>524</v>
       </c>
@@ -47640,7 +47642,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1076" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1076" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1076" s="1">
         <v>527</v>
       </c>
@@ -47672,7 +47674,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1077" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1077" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1077" s="1">
         <v>535</v>
       </c>
@@ -47762,7 +47764,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1080" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1080" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1080" s="1">
         <v>541</v>
       </c>
@@ -47852,7 +47854,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1083" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1083" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1083" s="1">
         <v>557</v>
       </c>
@@ -47913,7 +47915,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1085" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1085" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1085" s="1">
         <v>567</v>
       </c>
@@ -48032,7 +48034,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1089" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1089" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1089" s="1">
         <v>569</v>
       </c>
@@ -48064,7 +48066,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1090" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1090" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1090" s="1">
         <v>579</v>
       </c>
@@ -48096,7 +48098,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1091" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1091" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1091" s="1">
         <v>581</v>
       </c>
@@ -48128,7 +48130,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1092" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1092" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1092" s="1">
         <v>587</v>
       </c>
@@ -48160,7 +48162,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1093" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1093" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1093" s="1">
         <v>613</v>
       </c>
@@ -48192,7 +48194,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1094" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1094" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1094" s="1">
         <v>620</v>
       </c>
@@ -48311,7 +48313,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1098" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1098" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1098" s="1">
         <v>623</v>
       </c>
@@ -48488,7 +48490,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1104" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1104" s="1">
         <v>625</v>
       </c>
@@ -48636,7 +48638,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1109" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1109" s="1">
         <v>629</v>
       </c>
@@ -48726,7 +48728,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1112" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1112" s="1">
         <v>635</v>
       </c>
@@ -48758,7 +48760,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1113" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1113" s="1">
         <v>636</v>
       </c>
@@ -48790,7 +48792,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1114" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1114" s="1">
         <v>644</v>
       </c>
@@ -48822,7 +48824,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1115" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1115" s="1">
         <v>655</v>
       </c>
@@ -48854,7 +48856,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1116" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1116" s="1">
         <v>668</v>
       </c>
@@ -48915,7 +48917,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1118" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1118" s="1">
         <v>676</v>
       </c>
@@ -48976,7 +48978,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1120" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1120" s="1">
         <v>689</v>
       </c>
@@ -49095,7 +49097,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1124" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1124" s="1">
         <v>708</v>
       </c>
@@ -49272,7 +49274,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1130" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1130" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1130" s="1">
         <v>719</v>
       </c>
@@ -49391,7 +49393,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1134" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1134" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1134" s="1">
         <v>725</v>
       </c>
@@ -49423,7 +49425,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1135" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1135" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1135" s="1">
         <v>733</v>
       </c>
@@ -49455,7 +49457,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1136" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1136" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1136" s="1">
         <v>734</v>
       </c>
@@ -49545,7 +49547,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1139" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1139" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1139" s="1">
         <v>735</v>
       </c>
@@ -49577,7 +49579,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1140" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1140" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1140" s="1">
         <v>743</v>
       </c>
@@ -49609,7 +49611,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1141" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1141" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1141" s="1">
         <v>749</v>
       </c>
@@ -49757,7 +49759,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1146" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1146" s="1">
         <v>759</v>
       </c>
@@ -49789,7 +49791,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1147" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1147" s="1">
         <v>766</v>
       </c>
@@ -49995,7 +49997,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1154" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1154" s="1">
         <v>775</v>
       </c>
@@ -50143,7 +50145,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1159" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1159" s="1">
         <v>781</v>
       </c>
@@ -50204,7 +50206,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1161" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1161" s="1">
         <v>800</v>
       </c>
@@ -50265,7 +50267,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1163" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1163" s="1">
         <v>803</v>
       </c>
@@ -50326,7 +50328,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1165" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1165" s="1">
         <v>812</v>
       </c>
@@ -50358,7 +50360,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1166" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1166" s="1">
         <v>816</v>
       </c>
@@ -50419,7 +50421,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1168" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1168" s="1">
         <v>828</v>
       </c>
@@ -50451,7 +50453,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1169" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1169" s="1">
         <v>829</v>
       </c>
@@ -50628,7 +50630,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1175" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1175" s="1">
         <v>840</v>
       </c>
@@ -50689,7 +50691,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1177" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1177" s="1">
         <v>841</v>
       </c>
@@ -50721,7 +50723,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1178" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1178" s="1">
         <v>844</v>
       </c>
@@ -50782,7 +50784,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1180" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1180" s="1">
         <v>852</v>
       </c>
@@ -50814,7 +50816,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1181" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1181" s="1">
         <v>856</v>
       </c>
@@ -50846,7 +50848,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1182" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1182" s="1">
         <v>858</v>
       </c>
@@ -50936,7 +50938,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1185" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1185" s="1">
         <v>868</v>
       </c>
@@ -50968,7 +50970,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1186" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1186" s="1">
         <v>869</v>
       </c>
@@ -51000,7 +51002,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1187" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1187" s="1">
         <v>871</v>
       </c>
@@ -51235,7 +51237,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1195" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1195" s="1">
         <v>872</v>
       </c>
@@ -51325,7 +51327,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1198" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1198" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1198" s="1">
         <v>878</v>
       </c>
@@ -51415,7 +51417,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1201" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1201" s="1">
         <v>888</v>
       </c>
@@ -51447,7 +51449,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1202" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1202" s="1">
         <v>903</v>
       </c>
@@ -51595,7 +51597,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1207" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1207" s="1">
         <v>918</v>
       </c>
@@ -51656,7 +51658,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1209" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1209" s="1">
         <v>920</v>
       </c>
@@ -51717,7 +51719,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1211" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1211" s="1">
         <v>922</v>
       </c>
@@ -51749,7 +51751,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1212" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1212" s="1">
         <v>926</v>
       </c>
@@ -51781,7 +51783,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1213" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1213" s="1">
         <v>946</v>
       </c>
@@ -51842,7 +51844,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1215" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1215" s="1">
         <v>955</v>
       </c>
@@ -51874,7 +51876,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1216" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1216" s="1">
         <v>962</v>
       </c>
@@ -52109,7 +52111,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1224" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1224" s="1">
         <v>965</v>
       </c>
@@ -52199,7 +52201,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1227" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1227" s="1">
         <v>966</v>
       </c>
@@ -52231,7 +52233,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1228" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1228" s="1">
         <v>970</v>
       </c>
@@ -52292,7 +52294,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1230" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1230" s="1">
         <v>973</v>
       </c>
@@ -52353,7 +52355,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1232" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1232" s="1">
         <v>981</v>
       </c>
@@ -52385,7 +52387,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1233" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1233" s="1">
         <v>999</v>
       </c>
@@ -52562,7 +52564,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1239" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1239" s="1">
         <v>1010</v>
       </c>
@@ -52652,7 +52654,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1242" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1242" s="1">
         <v>1016</v>
       </c>
@@ -52684,7 +52686,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1243" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1243" s="1">
         <v>1021</v>
       </c>
@@ -52774,7 +52776,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1246" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1246" s="1">
         <v>1022</v>
       </c>
@@ -52806,7 +52808,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1247" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1247" s="1">
         <v>1024</v>
       </c>
@@ -52867,7 +52869,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1249" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1249" s="1">
         <v>1034</v>
       </c>
@@ -52928,7 +52930,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1251" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1251" s="1">
         <v>1041</v>
       </c>
@@ -52960,7 +52962,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1252" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1252" s="1">
         <v>1046</v>
       </c>
@@ -52992,7 +52994,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1253" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1253" s="1">
         <v>1047</v>
       </c>
@@ -53024,7 +53026,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1254" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1254" s="1">
         <v>1057</v>
       </c>
@@ -53085,7 +53087,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1256" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1256" s="1">
         <v>1059</v>
       </c>
@@ -53117,7 +53119,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1257" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1257" s="1">
         <v>1065</v>
       </c>
@@ -53178,7 +53180,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1259" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1259" s="1">
         <v>1070</v>
       </c>
@@ -53355,7 +53357,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1265" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1265" s="1">
         <v>1074</v>
       </c>
@@ -53503,7 +53505,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1270" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1270" s="1">
         <v>1075</v>
       </c>
@@ -53535,7 +53537,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1271" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1271" s="1">
         <v>1078</v>
       </c>
@@ -53915,7 +53917,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1284" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1284" s="1">
         <v>1083</v>
       </c>
@@ -53976,7 +53978,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1286" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1286" s="1">
         <v>1088</v>
       </c>
@@ -54037,7 +54039,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1288" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1288" s="1">
         <v>1089</v>
       </c>
@@ -54098,7 +54100,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1290" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1290" s="1">
         <v>1090</v>
       </c>
@@ -54130,7 +54132,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1291" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1291" s="1">
         <v>1091</v>
       </c>
@@ -54307,7 +54309,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1297" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1297" s="1">
         <v>1107</v>
       </c>
@@ -54339,7 +54341,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1298" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1298" s="1">
         <v>1122</v>
       </c>
@@ -54400,7 +54402,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1300" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1300" s="1">
         <v>1128</v>
       </c>
@@ -54461,7 +54463,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1302" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1302" s="1">
         <v>1137</v>
       </c>
@@ -54493,7 +54495,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1303" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1303" s="1">
         <v>1139</v>
       </c>
@@ -54612,7 +54614,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1307" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1307" s="1">
         <v>1152</v>
       </c>
@@ -54673,7 +54675,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1309" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1309" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1309" s="1">
         <v>1159</v>
       </c>
@@ -54705,7 +54707,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1310" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1310" s="1">
         <v>1163</v>
       </c>
@@ -54998,7 +55000,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1320" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1320" s="1">
         <v>1179</v>
       </c>
@@ -55030,7 +55032,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1321" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1321" s="1">
         <v>1199</v>
       </c>
@@ -55062,7 +55064,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1322" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1322" s="1">
         <v>1200</v>
       </c>
@@ -55094,7 +55096,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1323" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1323" s="1">
         <v>1209</v>
       </c>
@@ -55155,7 +55157,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1325" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1325" s="1">
         <v>1210</v>
       </c>
@@ -55187,7 +55189,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1326" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1326" s="1">
         <v>1213</v>
       </c>
@@ -55248,7 +55250,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1328" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1328" s="1">
         <v>1222</v>
       </c>
@@ -55280,7 +55282,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1329" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1329" s="1">
         <v>1226</v>
       </c>
@@ -55312,7 +55314,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1330" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1330" s="1">
         <v>1228</v>
       </c>
@@ -55344,7 +55346,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1331" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1331" s="1">
         <v>1240</v>
       </c>
@@ -55376,7 +55378,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1332" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1332" s="1">
         <v>1252</v>
       </c>
@@ -55408,7 +55410,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1333" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1333" s="1">
         <v>1255</v>
       </c>
@@ -55440,7 +55442,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1334" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1334" s="1">
         <v>1269</v>
       </c>
@@ -55472,7 +55474,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1335" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1335" s="1">
         <v>1288</v>
       </c>
@@ -55533,7 +55535,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1337" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1337" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1337" s="1">
         <v>1296</v>
       </c>
@@ -55623,7 +55625,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1340" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1340" s="1">
         <v>1305</v>
       </c>
@@ -55742,7 +55744,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1344" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1344" s="1">
         <v>1307</v>
       </c>
@@ -55803,7 +55805,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1346" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1346" s="1">
         <v>1318</v>
       </c>
@@ -55893,7 +55895,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1349" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1349" s="1">
         <v>1319</v>
       </c>
@@ -55925,7 +55927,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1350" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1350" s="1">
         <v>1320</v>
       </c>
@@ -55957,7 +55959,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1351" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1351" s="1">
         <v>1324</v>
       </c>
@@ -55989,7 +55991,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1352" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1352" s="1">
         <v>1328</v>
       </c>
@@ -56050,7 +56052,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1354" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1354" s="1">
         <v>1330</v>
       </c>
@@ -56169,7 +56171,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1358" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1358" s="1">
         <v>1332</v>
       </c>
@@ -56201,7 +56203,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1359" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1359" s="1">
         <v>1352</v>
       </c>
@@ -56320,7 +56322,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1363" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1363" s="1">
         <v>1364</v>
       </c>
@@ -56381,7 +56383,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1365" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1365" s="1">
         <v>1372</v>
       </c>
@@ -56413,7 +56415,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1366" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1366" s="1">
         <v>1374</v>
       </c>
@@ -56445,7 +56447,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1367" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1367" s="1">
         <v>1387</v>
       </c>
@@ -56477,7 +56479,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1368" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1368" s="1">
         <v>1392</v>
       </c>
@@ -56567,7 +56569,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1371" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1371" s="1">
         <v>1398</v>
       </c>
@@ -56628,7 +56630,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1373" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1373" s="1">
         <v>1400</v>
       </c>
@@ -56660,7 +56662,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1374" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1374" s="1">
         <v>1403</v>
       </c>
@@ -56692,7 +56694,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1375" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1375" s="1">
         <v>1405</v>
       </c>
@@ -56724,7 +56726,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1376" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1376" s="1">
         <v>1408</v>
       </c>
@@ -56814,7 +56816,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1379" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1379" s="1">
         <v>1413</v>
       </c>
@@ -56904,7 +56906,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1382" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1382" s="1">
         <v>1415</v>
       </c>
@@ -57023,7 +57025,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1386" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1386" s="1">
         <v>1418</v>
       </c>
@@ -57055,7 +57057,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1387" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1387" s="1">
         <v>1428</v>
       </c>
@@ -57116,7 +57118,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1389" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1389" s="1">
         <v>1430</v>
       </c>
@@ -57177,7 +57179,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1391" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1391" s="1">
         <v>1432</v>
       </c>
@@ -57238,7 +57240,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1393" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1393" s="1">
         <v>1433</v>
       </c>
@@ -57270,7 +57272,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1394" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1394" s="1">
         <v>1436</v>
       </c>
@@ -57418,7 +57420,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1399" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1399" s="1">
         <v>1437</v>
       </c>
@@ -57450,7 +57452,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1400" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1400" s="1">
         <v>1439</v>
       </c>
@@ -57482,7 +57484,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1401" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1401" s="1">
         <v>1445</v>
       </c>
@@ -57514,7 +57516,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1402" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1402" s="1">
         <v>1446</v>
       </c>
@@ -57546,7 +57548,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1403" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1403" s="1">
         <v>1461</v>
       </c>
@@ -57607,7 +57609,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1405" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1405" s="1">
         <v>1462</v>
       </c>
@@ -57668,7 +57670,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1407" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1407" s="1">
         <v>1465</v>
       </c>
@@ -57729,7 +57731,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1409" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1409" s="1">
         <v>1477</v>
       </c>
@@ -57761,7 +57763,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1410" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1410" s="1">
         <v>1488</v>
       </c>
@@ -57851,7 +57853,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1413" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1413" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1413" s="1">
         <v>1489</v>
       </c>
@@ -57883,7 +57885,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1414" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1414" s="1">
         <v>1500</v>
       </c>
@@ -57915,7 +57917,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1415" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1415" s="1">
         <v>1502</v>
       </c>
@@ -57976,7 +57978,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1417" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1417" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1417" s="1">
         <v>1507</v>
       </c>
@@ -58066,7 +58068,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1420" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1420" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1420" s="1">
         <v>296</v>
       </c>
@@ -58214,7 +58216,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1425" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1425" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1425" s="1">
         <v>149</v>
       </c>
@@ -58246,7 +58248,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="1426" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1426" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1426" s="1">
         <v>930</v>
       </c>
@@ -58307,7 +58309,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1428" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1428" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1428" s="1">
         <v>615</v>
       </c>
@@ -58368,7 +58370,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1430" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1430" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1430" s="1">
         <v>724</v>
       </c>
@@ -58400,7 +58402,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="1431" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1431" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1431" s="1">
         <v>1499</v>
       </c>
@@ -58432,7 +58434,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="1432" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1432" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1432" s="1">
         <v>573</v>
       </c>
@@ -58464,7 +58466,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1433" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1433" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1433" s="1">
         <v>994</v>
       </c>
@@ -58496,7 +58498,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1434" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1434" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1434" s="1">
         <v>1350</v>
       </c>
@@ -58528,7 +58530,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="1435" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1435" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1435" s="1">
         <v>780</v>
       </c>
@@ -58618,7 +58620,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1438" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1438" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1438" s="1">
         <v>1391</v>
       </c>
@@ -58650,7 +58652,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="1439" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1439" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1439" s="1">
         <v>1052</v>
       </c>
@@ -58682,7 +58684,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="1440" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1440" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1440" s="1">
         <v>1338</v>
       </c>
@@ -58714,7 +58716,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="1441" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1441" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1441" s="1">
         <v>393</v>
       </c>
@@ -58891,7 +58893,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1447" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1447" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1447" s="1">
         <v>201</v>
       </c>
@@ -58923,7 +58925,7 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="1448" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1448" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1448" s="1">
         <v>1237</v>
       </c>
@@ -58984,7 +58986,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1450" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1450" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1450" s="1">
         <v>1013</v>
       </c>
@@ -59016,7 +59018,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1451" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1451" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1451" s="1">
         <v>741</v>
       </c>
@@ -59193,7 +59195,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1457" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1457" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1457" s="1">
         <v>1308</v>
       </c>
@@ -59312,7 +59314,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1461" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1461" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1461" s="1">
         <v>900</v>
       </c>
@@ -59373,7 +59375,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1463" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1463" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1463" s="1">
         <v>246</v>
       </c>
@@ -59405,7 +59407,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1464" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1464" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1464" s="1">
         <v>512</v>
       </c>
@@ -59495,7 +59497,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1467" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1467" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1467" s="1">
         <v>303</v>
       </c>
@@ -59527,7 +59529,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1468" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1468" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1468" s="1">
         <v>568</v>
       </c>
@@ -59646,7 +59648,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1472" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1472" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1472" s="1">
         <v>111</v>
       </c>
@@ -59794,7 +59796,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1477" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1477" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1477" s="1">
         <v>381</v>
       </c>
@@ -59855,7 +59857,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1479" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1479" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1479" s="1">
         <v>333</v>
       </c>
@@ -59974,7 +59976,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1483" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1483" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1483" s="1">
         <v>978</v>
       </c>
@@ -60064,7 +60066,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1486" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1486" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1486" s="1">
         <v>1289</v>
       </c>
@@ -60154,7 +60156,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1489" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1489" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1489" s="1">
         <v>561</v>
       </c>
@@ -60186,7 +60188,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1490" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1490" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1490" s="1">
         <v>1475</v>
       </c>
@@ -60218,7 +60220,7 @@
         <v>4916</v>
       </c>
     </row>
-    <row r="1491" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1491" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1491" s="1">
         <v>423</v>
       </c>
@@ -60279,7 +60281,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1493" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1493" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1493" s="1">
         <v>247</v>
       </c>
@@ -60311,7 +60313,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1494" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1494" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1494" s="1">
         <v>1102</v>
       </c>
@@ -60517,7 +60519,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1501" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1501" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1501" s="1">
         <v>266</v>
       </c>
@@ -60549,7 +60551,7 @@
         <v>4913</v>
       </c>
     </row>
-    <row r="1502" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1502" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1502" s="1">
         <v>677</v>
       </c>
@@ -60610,7 +60612,7 @@
         <v>4911</v>
       </c>
     </row>
-    <row r="1504" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1504" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1504" s="1">
         <v>125</v>
       </c>
@@ -60758,7 +60760,7 @@
         <v>4910</v>
       </c>
     </row>
-    <row r="1509" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1509" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A1509" s="1">
         <v>1205</v>
       </c>
@@ -60791,6 +60793,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1509" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="anti-stereotype"/>
+        <filter val="stereotype"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1438 J1448:J1509" xr:uid="{28A82915-5B23-4FCE-8877-1D8659EEB110}">
       <formula1>$R$2:$R$10</formula1>

--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58F3F17A-2776-435F-A79A-9EDBBD71BF3C}"/>
+  <xr:revisionPtr revIDLastSave="474" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76DC715-4F45-4B6D-BC3B-8B2D8E935A9F}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15181,8 +15181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -60792,11 +60792,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1509" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J1509">
-      <sortCondition ref="A1:A1509"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J1509" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1438 J1448:J1509" xr:uid="{28A82915-5B23-4FCE-8877-1D8659EEB110}">
       <formula1>$R$2:$R$10</formula1>

--- a/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
+++ b/results_analysis/RQ1/label_undetermined_responses/crows_gpt4_completions_RQ1_label_undeter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/results_analysis/RQ1/label_undetermined_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E76DC715-4F45-4B6D-BC3B-8B2D8E935A9F}"/>
+  <xr:revisionPtr revIDLastSave="475" documentId="11_7ED921F3974B8B1E472D4C35452A20ED78685C5B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51543437-C1D5-4485-B9A9-D4CF9D77B512}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14775,9 +14775,6 @@
     <t>stereotype</t>
   </si>
   <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>Not enough information</t>
   </si>
   <si>
@@ -14794,6 +14791,9 @@
   </si>
   <si>
     <t>Avoid (un)targeted term</t>
+  </si>
+  <si>
+    <t>label_RQ1</t>
   </si>
 </sst>
 </file>
@@ -14886,10 +14886,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15181,8 +15177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15220,7 +15216,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4912</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -15252,7 +15248,7 @@
         <v>4909</v>
       </c>
       <c r="J2" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
@@ -15342,7 +15338,7 @@
         <v>4909</v>
       </c>
       <c r="J5" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
@@ -15374,7 +15370,7 @@
         <v>4909</v>
       </c>
       <c r="J6" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
@@ -15406,7 +15402,7 @@
         <v>4909</v>
       </c>
       <c r="J7" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -15467,7 +15463,7 @@
         <v>4909</v>
       </c>
       <c r="J9" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -15499,7 +15495,7 @@
         <v>4909</v>
       </c>
       <c r="J10" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -15589,7 +15585,7 @@
         <v>4909</v>
       </c>
       <c r="J13" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
@@ -15650,7 +15646,7 @@
         <v>4909</v>
       </c>
       <c r="J15" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -15682,7 +15678,7 @@
         <v>4909</v>
       </c>
       <c r="J16" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -15714,7 +15710,7 @@
         <v>4909</v>
       </c>
       <c r="J17" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
@@ -15775,7 +15771,7 @@
         <v>4909</v>
       </c>
       <c r="J19" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
@@ -15894,7 +15890,7 @@
         <v>4909</v>
       </c>
       <c r="J23" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
@@ -15926,7 +15922,7 @@
         <v>4909</v>
       </c>
       <c r="J24" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
@@ -16161,7 +16157,7 @@
         <v>4909</v>
       </c>
       <c r="J32" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
@@ -16251,7 +16247,7 @@
         <v>4909</v>
       </c>
       <c r="J35" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
@@ -16283,7 +16279,7 @@
         <v>4909</v>
       </c>
       <c r="J36" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
@@ -16344,7 +16340,7 @@
         <v>4909</v>
       </c>
       <c r="J38" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
@@ -16550,7 +16546,7 @@
         <v>4909</v>
       </c>
       <c r="J45" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.45">
@@ -16669,7 +16665,7 @@
         <v>4909</v>
       </c>
       <c r="J49" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.45">
@@ -16701,7 +16697,7 @@
         <v>4909</v>
       </c>
       <c r="J50" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.45">
@@ -16791,7 +16787,7 @@
         <v>4909</v>
       </c>
       <c r="J53" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.45">
@@ -16852,7 +16848,7 @@
         <v>4909</v>
       </c>
       <c r="J55" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.45">
@@ -16913,7 +16909,7 @@
         <v>4909</v>
       </c>
       <c r="J57" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.45">
@@ -16945,7 +16941,7 @@
         <v>4909</v>
       </c>
       <c r="J58" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.45">
@@ -17006,7 +17002,7 @@
         <v>4909</v>
       </c>
       <c r="J60" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.45">
@@ -17038,7 +17034,7 @@
         <v>4909</v>
       </c>
       <c r="J61" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.45">
@@ -17099,7 +17095,7 @@
         <v>4909</v>
       </c>
       <c r="J63" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.45">
@@ -17160,7 +17156,7 @@
         <v>4909</v>
       </c>
       <c r="J65" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.45">
@@ -17192,7 +17188,7 @@
         <v>4909</v>
       </c>
       <c r="J66" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.45">
@@ -17224,7 +17220,7 @@
         <v>4909</v>
       </c>
       <c r="J67" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.45">
@@ -17256,7 +17252,7 @@
         <v>4909</v>
       </c>
       <c r="J68" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.45">
@@ -17317,7 +17313,7 @@
         <v>4909</v>
       </c>
       <c r="J70" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.45">
@@ -17465,7 +17461,7 @@
         <v>4909</v>
       </c>
       <c r="J75" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.45">
@@ -17497,7 +17493,7 @@
         <v>4909</v>
       </c>
       <c r="J76" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.45">
@@ -17529,7 +17525,7 @@
         <v>4909</v>
       </c>
       <c r="J77" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.45">
@@ -17619,7 +17615,7 @@
         <v>4909</v>
       </c>
       <c r="J80" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.45">
@@ -17651,7 +17647,7 @@
         <v>4909</v>
       </c>
       <c r="J81" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.45">
@@ -17683,7 +17679,7 @@
         <v>4909</v>
       </c>
       <c r="J82" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.45">
@@ -17715,7 +17711,7 @@
         <v>4909</v>
       </c>
       <c r="J83" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.45">
@@ -17805,7 +17801,7 @@
         <v>4909</v>
       </c>
       <c r="J86" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.45">
@@ -17953,7 +17949,7 @@
         <v>4909</v>
       </c>
       <c r="J91" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.45">
@@ -17985,7 +17981,7 @@
         <v>4909</v>
       </c>
       <c r="J92" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.45">
@@ -18191,7 +18187,7 @@
         <v>4909</v>
       </c>
       <c r="J99" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.45">
@@ -18339,7 +18335,7 @@
         <v>4909</v>
       </c>
       <c r="J104" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.45">
@@ -18371,7 +18367,7 @@
         <v>4909</v>
       </c>
       <c r="J105" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.45">
@@ -18432,7 +18428,7 @@
         <v>4909</v>
       </c>
       <c r="J107" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.45">
@@ -18464,7 +18460,7 @@
         <v>4909</v>
       </c>
       <c r="J108" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.45">
@@ -18612,7 +18608,7 @@
         <v>4909</v>
       </c>
       <c r="J113" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.45">
@@ -18760,7 +18756,7 @@
         <v>4909</v>
       </c>
       <c r="J118" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.45">
@@ -18908,7 +18904,7 @@
         <v>4909</v>
       </c>
       <c r="J123" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.45">
@@ -18940,7 +18936,7 @@
         <v>4909</v>
       </c>
       <c r="J124" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.45">
@@ -18972,7 +18968,7 @@
         <v>4909</v>
       </c>
       <c r="J125" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.45">
@@ -19004,7 +19000,7 @@
         <v>4909</v>
       </c>
       <c r="J126" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.45">
@@ -19036,7 +19032,7 @@
         <v>4909</v>
       </c>
       <c r="J127" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.45">
@@ -19068,7 +19064,7 @@
         <v>4909</v>
       </c>
       <c r="J128" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.45">
@@ -19100,7 +19096,7 @@
         <v>4909</v>
       </c>
       <c r="J129" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.45">
@@ -19132,7 +19128,7 @@
         <v>4909</v>
       </c>
       <c r="J130" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.45">
@@ -19193,7 +19189,7 @@
         <v>4909</v>
       </c>
       <c r="J132" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.45">
@@ -19283,7 +19279,7 @@
         <v>4909</v>
       </c>
       <c r="J135" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.45">
@@ -19315,7 +19311,7 @@
         <v>4909</v>
       </c>
       <c r="J136" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.45">
@@ -19347,7 +19343,7 @@
         <v>4909</v>
       </c>
       <c r="J137" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.45">
@@ -19379,7 +19375,7 @@
         <v>4909</v>
       </c>
       <c r="J138" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.45">
@@ -19585,7 +19581,7 @@
         <v>4909</v>
       </c>
       <c r="J145" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.45">
@@ -19617,7 +19613,7 @@
         <v>4909</v>
       </c>
       <c r="J146" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.45">
@@ -19765,7 +19761,7 @@
         <v>4909</v>
       </c>
       <c r="J151" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.45">
@@ -19797,7 +19793,7 @@
         <v>4909</v>
       </c>
       <c r="J152" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.45">
@@ -19887,7 +19883,7 @@
         <v>4909</v>
       </c>
       <c r="J155" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.45">
@@ -19977,7 +19973,7 @@
         <v>4909</v>
       </c>
       <c r="J158" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.45">
@@ -20067,7 +20063,7 @@
         <v>4909</v>
       </c>
       <c r="J161" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.45">
@@ -20157,7 +20153,7 @@
         <v>4909</v>
       </c>
       <c r="J164" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.45">
@@ -20218,7 +20214,7 @@
         <v>4909</v>
       </c>
       <c r="J166" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.45">
@@ -20337,7 +20333,7 @@
         <v>4909</v>
       </c>
       <c r="J170" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.45">
@@ -20369,7 +20365,7 @@
         <v>4909</v>
       </c>
       <c r="J171" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.45">
@@ -20401,7 +20397,7 @@
         <v>4909</v>
       </c>
       <c r="J172" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.45">
@@ -20433,7 +20429,7 @@
         <v>4909</v>
       </c>
       <c r="J173" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.45">
@@ -20465,7 +20461,7 @@
         <v>4909</v>
       </c>
       <c r="J174" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.45">
@@ -20497,7 +20493,7 @@
         <v>4909</v>
       </c>
       <c r="J175" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.45">
@@ -20587,7 +20583,7 @@
         <v>4909</v>
       </c>
       <c r="J178" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.45">
@@ -20619,7 +20615,7 @@
         <v>4909</v>
       </c>
       <c r="J179" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.45">
@@ -20738,7 +20734,7 @@
         <v>4909</v>
       </c>
       <c r="J183" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.45">
@@ -20770,7 +20766,7 @@
         <v>4909</v>
       </c>
       <c r="J184" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.45">
@@ -20860,7 +20856,7 @@
         <v>4909</v>
       </c>
       <c r="J187" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.45">
@@ -20921,7 +20917,7 @@
         <v>4909</v>
       </c>
       <c r="J189" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.45">
@@ -20982,7 +20978,7 @@
         <v>4909</v>
       </c>
       <c r="J191" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.45">
@@ -21188,7 +21184,7 @@
         <v>4909</v>
       </c>
       <c r="J198" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.45">
@@ -21249,7 +21245,7 @@
         <v>4909</v>
       </c>
       <c r="J200" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.45">
@@ -21339,7 +21335,7 @@
         <v>4909</v>
       </c>
       <c r="J203" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.45">
@@ -21371,7 +21367,7 @@
         <v>4909</v>
       </c>
       <c r="J204" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.45">
@@ -21403,7 +21399,7 @@
         <v>4909</v>
       </c>
       <c r="J205" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.45">
@@ -21493,7 +21489,7 @@
         <v>4909</v>
       </c>
       <c r="J208" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.45">
@@ -21525,7 +21521,7 @@
         <v>4909</v>
       </c>
       <c r="J209" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.45">
@@ -21905,7 +21901,7 @@
         <v>4909</v>
       </c>
       <c r="J222" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.45">
@@ -22024,7 +22020,7 @@
         <v>4909</v>
       </c>
       <c r="J226" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.45">
@@ -22056,7 +22052,7 @@
         <v>4909</v>
       </c>
       <c r="J227" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.45">
@@ -22088,7 +22084,7 @@
         <v>4909</v>
       </c>
       <c r="J228" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.45">
@@ -22120,7 +22116,7 @@
         <v>4909</v>
       </c>
       <c r="J229" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.45">
@@ -22181,7 +22177,7 @@
         <v>4909</v>
       </c>
       <c r="J231" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.45">
@@ -22242,7 +22238,7 @@
         <v>4909</v>
       </c>
       <c r="J233" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.45">
@@ -22361,7 +22357,7 @@
         <v>4909</v>
       </c>
       <c r="J237" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.45">
@@ -22393,7 +22389,7 @@
         <v>4909</v>
       </c>
       <c r="J238" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.45">
@@ -22483,7 +22479,7 @@
         <v>4909</v>
       </c>
       <c r="J241" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.45">
@@ -22544,7 +22540,7 @@
         <v>4909</v>
       </c>
       <c r="J243" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.45">
@@ -22576,7 +22572,7 @@
         <v>4909</v>
       </c>
       <c r="J244" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.45">
@@ -22608,7 +22604,7 @@
         <v>4909</v>
       </c>
       <c r="J245" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.45">
@@ -22669,7 +22665,7 @@
         <v>4909</v>
       </c>
       <c r="J247" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.45">
@@ -22701,7 +22697,7 @@
         <v>4909</v>
       </c>
       <c r="J248" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.45">
@@ -22733,7 +22729,7 @@
         <v>4909</v>
       </c>
       <c r="J249" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.45">
@@ -22910,7 +22906,7 @@
         <v>4909</v>
       </c>
       <c r="J255" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.45">
@@ -22971,7 +22967,7 @@
         <v>4909</v>
       </c>
       <c r="J257" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.45">
@@ -23032,7 +23028,7 @@
         <v>4909</v>
       </c>
       <c r="J259" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.45">
@@ -23122,7 +23118,7 @@
         <v>4909</v>
       </c>
       <c r="J262" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.45">
@@ -23299,7 +23295,7 @@
         <v>4909</v>
       </c>
       <c r="J268" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.45">
@@ -23447,7 +23443,7 @@
         <v>4909</v>
       </c>
       <c r="J273" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.45">
@@ -23479,7 +23475,7 @@
         <v>4909</v>
       </c>
       <c r="J274" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.45">
@@ -23569,7 +23565,7 @@
         <v>4909</v>
       </c>
       <c r="J277" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.45">
@@ -23601,7 +23597,7 @@
         <v>4909</v>
       </c>
       <c r="J278" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.45">
@@ -23633,7 +23629,7 @@
         <v>4909</v>
       </c>
       <c r="J279" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.45">
@@ -23694,7 +23690,7 @@
         <v>4909</v>
       </c>
       <c r="J281" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.45">
@@ -23726,7 +23722,7 @@
         <v>4909</v>
       </c>
       <c r="J282" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.45">
@@ -23845,7 +23841,7 @@
         <v>4909</v>
       </c>
       <c r="J286" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.45">
@@ -23877,7 +23873,7 @@
         <v>4909</v>
       </c>
       <c r="J287" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.45">
@@ -23967,7 +23963,7 @@
         <v>4909</v>
       </c>
       <c r="J290" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.45">
@@ -23999,7 +23995,7 @@
         <v>4909</v>
       </c>
       <c r="J291" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.45">
@@ -24089,7 +24085,7 @@
         <v>4909</v>
       </c>
       <c r="J294" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.45">
@@ -24150,7 +24146,7 @@
         <v>4909</v>
       </c>
       <c r="J296" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.45">
@@ -24182,7 +24178,7 @@
         <v>4909</v>
       </c>
       <c r="J297" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.45">
@@ -24214,7 +24210,7 @@
         <v>4909</v>
       </c>
       <c r="J298" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.45">
@@ -24275,7 +24271,7 @@
         <v>4909</v>
       </c>
       <c r="J300" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.45">
@@ -24394,7 +24390,7 @@
         <v>4909</v>
       </c>
       <c r="J304" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.45">
@@ -24426,7 +24422,7 @@
         <v>4909</v>
       </c>
       <c r="J305" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.45">
@@ -24458,7 +24454,7 @@
         <v>4909</v>
       </c>
       <c r="J306" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.45">
@@ -24693,7 +24689,7 @@
         <v>4909</v>
       </c>
       <c r="J314" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.45">
@@ -24783,7 +24779,7 @@
         <v>4909</v>
       </c>
       <c r="J317" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.45">
@@ -24815,7 +24811,7 @@
         <v>4909</v>
       </c>
       <c r="J318" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.45">
@@ -24847,7 +24843,7 @@
         <v>4909</v>
       </c>
       <c r="J319" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.45">
@@ -24879,7 +24875,7 @@
         <v>4909</v>
       </c>
       <c r="J320" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.45">
@@ -24969,7 +24965,7 @@
         <v>4909</v>
       </c>
       <c r="J323" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.45">
@@ -25030,7 +25026,7 @@
         <v>4909</v>
       </c>
       <c r="J325" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.45">
@@ -25062,7 +25058,7 @@
         <v>4909</v>
       </c>
       <c r="J326" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.45">
@@ -25094,7 +25090,7 @@
         <v>4909</v>
       </c>
       <c r="J327" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.45">
@@ -25155,7 +25151,7 @@
         <v>4909</v>
       </c>
       <c r="J329" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.45">
@@ -25187,7 +25183,7 @@
         <v>4909</v>
       </c>
       <c r="J330" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.45">
@@ -25306,7 +25302,7 @@
         <v>4909</v>
       </c>
       <c r="J334" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.45">
@@ -25338,7 +25334,7 @@
         <v>4909</v>
       </c>
       <c r="J335" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.45">
@@ -25602,7 +25598,7 @@
         <v>4909</v>
       </c>
       <c r="J344" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.45">
@@ -25634,7 +25630,7 @@
         <v>4909</v>
       </c>
       <c r="J345" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.45">
@@ -25666,7 +25662,7 @@
         <v>4909</v>
       </c>
       <c r="J346" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.45">
@@ -25756,7 +25752,7 @@
         <v>4909</v>
       </c>
       <c r="J349" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.45">
@@ -25846,7 +25842,7 @@
         <v>4909</v>
       </c>
       <c r="J352" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.45">
@@ -25907,7 +25903,7 @@
         <v>4909</v>
       </c>
       <c r="J354" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.45">
@@ -25997,7 +25993,7 @@
         <v>4909</v>
       </c>
       <c r="J357" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.45">
@@ -26116,7 +26112,7 @@
         <v>4909</v>
       </c>
       <c r="J361" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.45">
@@ -26264,7 +26260,7 @@
         <v>4909</v>
       </c>
       <c r="J366" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.45">
@@ -26441,7 +26437,7 @@
         <v>4909</v>
       </c>
       <c r="J372" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.45">
@@ -26473,7 +26469,7 @@
         <v>4909</v>
       </c>
       <c r="J373" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.45">
@@ -26766,7 +26762,7 @@
         <v>4909</v>
       </c>
       <c r="J383" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.45">
@@ -26798,7 +26794,7 @@
         <v>4909</v>
       </c>
       <c r="J384" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.45">
@@ -26859,7 +26855,7 @@
         <v>4909</v>
       </c>
       <c r="J386" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.45">
@@ -26920,7 +26916,7 @@
         <v>4909</v>
       </c>
       <c r="J388" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.45">
@@ -27010,7 +27006,7 @@
         <v>4909</v>
       </c>
       <c r="J391" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.45">
@@ -27129,7 +27125,7 @@
         <v>4909</v>
       </c>
       <c r="J395" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.45">
@@ -27190,7 +27186,7 @@
         <v>4909</v>
       </c>
       <c r="J397" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.45">
@@ -27280,7 +27276,7 @@
         <v>4909</v>
       </c>
       <c r="J400" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.45">
@@ -27312,7 +27308,7 @@
         <v>4909</v>
       </c>
       <c r="J401" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.45">
@@ -27431,7 +27427,7 @@
         <v>4909</v>
       </c>
       <c r="J405" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.45">
@@ -27550,7 +27546,7 @@
         <v>4909</v>
       </c>
       <c r="J409" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.45">
@@ -27611,7 +27607,7 @@
         <v>4909</v>
       </c>
       <c r="J411" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.45">
@@ -27701,7 +27697,7 @@
         <v>4909</v>
       </c>
       <c r="J414" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.45">
@@ -27791,7 +27787,7 @@
         <v>4909</v>
       </c>
       <c r="J417" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.45">
@@ -27852,7 +27848,7 @@
         <v>4909</v>
       </c>
       <c r="J419" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.45">
@@ -27884,7 +27880,7 @@
         <v>4909</v>
       </c>
       <c r="J420" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.45">
@@ -27974,7 +27970,7 @@
         <v>4909</v>
       </c>
       <c r="J423" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.45">
@@ -28006,7 +28002,7 @@
         <v>4909</v>
       </c>
       <c r="J424" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.45">
@@ -28038,7 +28034,7 @@
         <v>4909</v>
       </c>
       <c r="J425" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.45">
@@ -28070,7 +28066,7 @@
         <v>4909</v>
       </c>
       <c r="J426" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.45">
@@ -28218,7 +28214,7 @@
         <v>4909</v>
       </c>
       <c r="J431" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.45">
@@ -28250,7 +28246,7 @@
         <v>4909</v>
       </c>
       <c r="J432" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.45">
@@ -28282,7 +28278,7 @@
         <v>4909</v>
       </c>
       <c r="J433" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.45">
@@ -28488,7 +28484,7 @@
         <v>4909</v>
       </c>
       <c r="J440" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.45">
@@ -28549,7 +28545,7 @@
         <v>4909</v>
       </c>
       <c r="J442" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.45">
@@ -28610,7 +28606,7 @@
         <v>4909</v>
       </c>
       <c r="J444" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.45">
@@ -28700,7 +28696,7 @@
         <v>4909</v>
       </c>
       <c r="J447" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.45">
@@ -28761,7 +28757,7 @@
         <v>4909</v>
       </c>
       <c r="J449" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.45">
@@ -28793,7 +28789,7 @@
         <v>4909</v>
       </c>
       <c r="J450" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.45">
@@ -28883,7 +28879,7 @@
         <v>4909</v>
       </c>
       <c r="J453" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.45">
@@ -29118,7 +29114,7 @@
         <v>4909</v>
       </c>
       <c r="J461" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.45">
@@ -29353,7 +29349,7 @@
         <v>4909</v>
       </c>
       <c r="J469" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.45">
@@ -29617,7 +29613,7 @@
         <v>4909</v>
       </c>
       <c r="J478" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.45">
@@ -29707,7 +29703,7 @@
         <v>4909</v>
       </c>
       <c r="J481" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.45">
@@ -29855,7 +29851,7 @@
         <v>4909</v>
       </c>
       <c r="J486" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.45">
@@ -30061,7 +30057,7 @@
         <v>4909</v>
       </c>
       <c r="J493" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.45">
@@ -30122,7 +30118,7 @@
         <v>4909</v>
       </c>
       <c r="J495" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.45">
@@ -30299,7 +30295,7 @@
         <v>4909</v>
       </c>
       <c r="J501" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.45">
@@ -30447,7 +30443,7 @@
         <v>4909</v>
       </c>
       <c r="J506" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.45">
@@ -30682,7 +30678,7 @@
         <v>4909</v>
       </c>
       <c r="J514" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.45">
@@ -30714,7 +30710,7 @@
         <v>4909</v>
       </c>
       <c r="J515" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.45">
@@ -30775,7 +30771,7 @@
         <v>4909</v>
       </c>
       <c r="J517" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.45">
@@ -30836,7 +30832,7 @@
         <v>4909</v>
       </c>
       <c r="J519" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.45">
@@ -30926,7 +30922,7 @@
         <v>4909</v>
       </c>
       <c r="J522" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.45">
@@ -31045,7 +31041,7 @@
         <v>4909</v>
       </c>
       <c r="J526" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="527" spans="1:10" x14ac:dyDescent="0.45">
@@ -31077,7 +31073,7 @@
         <v>4909</v>
       </c>
       <c r="J527" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.45">
@@ -31138,7 +31134,7 @@
         <v>4909</v>
       </c>
       <c r="J529" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.45">
@@ -31199,7 +31195,7 @@
         <v>4909</v>
       </c>
       <c r="J531" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.45">
@@ -31318,7 +31314,7 @@
         <v>4909</v>
       </c>
       <c r="J535" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.45">
@@ -31379,7 +31375,7 @@
         <v>4909</v>
       </c>
       <c r="J537" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.45">
@@ -31469,7 +31465,7 @@
         <v>4909</v>
       </c>
       <c r="J540" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.45">
@@ -31559,7 +31555,7 @@
         <v>4909</v>
       </c>
       <c r="J543" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.45">
@@ -31620,7 +31616,7 @@
         <v>4909</v>
       </c>
       <c r="J545" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.45">
@@ -31710,7 +31706,7 @@
         <v>4909</v>
       </c>
       <c r="J548" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.45">
@@ -31800,7 +31796,7 @@
         <v>4909</v>
       </c>
       <c r="J551" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.45">
@@ -31890,7 +31886,7 @@
         <v>4909</v>
       </c>
       <c r="J554" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.45">
@@ -31922,7 +31918,7 @@
         <v>4909</v>
       </c>
       <c r="J555" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.45">
@@ -31954,7 +31950,7 @@
         <v>4909</v>
       </c>
       <c r="J556" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.45">
@@ -32044,7 +32040,7 @@
         <v>4909</v>
       </c>
       <c r="J559" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.45">
@@ -32105,7 +32101,7 @@
         <v>4909</v>
       </c>
       <c r="J561" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.45">
@@ -32166,7 +32162,7 @@
         <v>4909</v>
       </c>
       <c r="J563" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.45">
@@ -32343,7 +32339,7 @@
         <v>4909</v>
       </c>
       <c r="J569" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.45">
@@ -32375,7 +32371,7 @@
         <v>4909</v>
       </c>
       <c r="J570" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.45">
@@ -32407,7 +32403,7 @@
         <v>4909</v>
       </c>
       <c r="J571" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.45">
@@ -32439,7 +32435,7 @@
         <v>4909</v>
       </c>
       <c r="J572" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.45">
@@ -32500,7 +32496,7 @@
         <v>4909</v>
       </c>
       <c r="J574" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.45">
@@ -32532,7 +32528,7 @@
         <v>4909</v>
       </c>
       <c r="J575" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.45">
@@ -32680,7 +32676,7 @@
         <v>4909</v>
       </c>
       <c r="J580" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.45">
@@ -32712,7 +32708,7 @@
         <v>4909</v>
       </c>
       <c r="J581" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.45">
@@ -32773,7 +32769,7 @@
         <v>4909</v>
       </c>
       <c r="J583" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.45">
@@ -32805,7 +32801,7 @@
         <v>4909</v>
       </c>
       <c r="J584" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.45">
@@ -32953,7 +32949,7 @@
         <v>4909</v>
       </c>
       <c r="J589" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.45">
@@ -33246,7 +33242,7 @@
         <v>4909</v>
       </c>
       <c r="J599" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.45">
@@ -33365,7 +33361,7 @@
         <v>4909</v>
       </c>
       <c r="J603" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.45">
@@ -33426,7 +33422,7 @@
         <v>4909</v>
       </c>
       <c r="J605" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.45">
@@ -33516,7 +33512,7 @@
         <v>4909</v>
       </c>
       <c r="J608" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.45">
@@ -33577,7 +33573,7 @@
         <v>4909</v>
       </c>
       <c r="J610" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.45">
@@ -33667,7 +33663,7 @@
         <v>4909</v>
       </c>
       <c r="J613" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.45">
@@ -33728,7 +33724,7 @@
         <v>4909</v>
       </c>
       <c r="J615" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.45">
@@ -33760,7 +33756,7 @@
         <v>4909</v>
       </c>
       <c r="J616" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.45">
@@ -33792,7 +33788,7 @@
         <v>4909</v>
       </c>
       <c r="J617" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.45">
@@ -33853,7 +33849,7 @@
         <v>4909</v>
       </c>
       <c r="J619" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.45">
@@ -33885,7 +33881,7 @@
         <v>4909</v>
       </c>
       <c r="J620" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.45">
@@ -33946,7 +33942,7 @@
         <v>4909</v>
       </c>
       <c r="J622" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.45">
@@ -34036,7 +34032,7 @@
         <v>4909</v>
       </c>
       <c r="J625" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.45">
@@ -34068,7 +34064,7 @@
         <v>4909</v>
       </c>
       <c r="J626" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.45">
@@ -34100,7 +34096,7 @@
         <v>4909</v>
       </c>
       <c r="J627" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.45">
@@ -34219,7 +34215,7 @@
         <v>4909</v>
       </c>
       <c r="J631" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.45">
@@ -34309,7 +34305,7 @@
         <v>4909</v>
       </c>
       <c r="J634" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.45">
@@ -34370,7 +34366,7 @@
         <v>4909</v>
       </c>
       <c r="J636" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.45">
@@ -34402,7 +34398,7 @@
         <v>4909</v>
       </c>
       <c r="J637" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.45">
@@ -34434,7 +34430,7 @@
         <v>4909</v>
       </c>
       <c r="J638" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.45">
@@ -34553,7 +34549,7 @@
         <v>4909</v>
       </c>
       <c r="J642" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.45">
@@ -34585,7 +34581,7 @@
         <v>4909</v>
       </c>
       <c r="J643" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.45">
@@ -34617,7 +34613,7 @@
         <v>4909</v>
       </c>
       <c r="J644" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.45">
@@ -34678,7 +34674,7 @@
         <v>4909</v>
       </c>
       <c r="J646" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.45">
@@ -34739,7 +34735,7 @@
         <v>4909</v>
       </c>
       <c r="J648" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.45">
@@ -34887,7 +34883,7 @@
         <v>4909</v>
       </c>
       <c r="J653" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.45">
@@ -35006,7 +35002,7 @@
         <v>4909</v>
       </c>
       <c r="J657" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.45">
@@ -35328,7 +35324,7 @@
         <v>4909</v>
       </c>
       <c r="J668" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.45">
@@ -35389,7 +35385,7 @@
         <v>4909</v>
       </c>
       <c r="J670" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.45">
@@ -35450,7 +35446,7 @@
         <v>4909</v>
       </c>
       <c r="J672" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.45">
@@ -35627,7 +35623,7 @@
         <v>4909</v>
       </c>
       <c r="J678" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.45">
@@ -35659,7 +35655,7 @@
         <v>4909</v>
       </c>
       <c r="J679" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.45">
@@ -35691,7 +35687,7 @@
         <v>4909</v>
       </c>
       <c r="J680" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.45">
@@ -35723,7 +35719,7 @@
         <v>4909</v>
       </c>
       <c r="J681" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.45">
@@ -35900,7 +35896,7 @@
         <v>4909</v>
       </c>
       <c r="J687" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.45">
@@ -35990,7 +35986,7 @@
         <v>4909</v>
       </c>
       <c r="J690" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.45">
@@ -36022,7 +36018,7 @@
         <v>4909</v>
       </c>
       <c r="J691" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.45">
@@ -36228,7 +36224,7 @@
         <v>4909</v>
       </c>
       <c r="J698" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.45">
@@ -36260,7 +36256,7 @@
         <v>4909</v>
       </c>
       <c r="J699" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.45">
@@ -36292,7 +36288,7 @@
         <v>4909</v>
       </c>
       <c r="J700" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.45">
@@ -36324,7 +36320,7 @@
         <v>4909</v>
       </c>
       <c r="J701" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.45">
@@ -36414,7 +36410,7 @@
         <v>4909</v>
       </c>
       <c r="J704" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.45">
@@ -36475,7 +36471,7 @@
         <v>4909</v>
       </c>
       <c r="J706" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.45">
@@ -36507,7 +36503,7 @@
         <v>4909</v>
       </c>
       <c r="J707" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.45">
@@ -36597,7 +36593,7 @@
         <v>4909</v>
       </c>
       <c r="J710" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.45">
@@ -36803,7 +36799,7 @@
         <v>4909</v>
       </c>
       <c r="J717" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.45">
@@ -36922,7 +36918,7 @@
         <v>4909</v>
       </c>
       <c r="J721" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.45">
@@ -37070,7 +37066,7 @@
         <v>4909</v>
       </c>
       <c r="J726" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.45">
@@ -37102,7 +37098,7 @@
         <v>4909</v>
       </c>
       <c r="J727" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.45">
@@ -37134,7 +37130,7 @@
         <v>4909</v>
       </c>
       <c r="J728" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.45">
@@ -37282,7 +37278,7 @@
         <v>4909</v>
       </c>
       <c r="J733" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.45">
@@ -37314,7 +37310,7 @@
         <v>4909</v>
       </c>
       <c r="J734" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.45">
@@ -37346,7 +37342,7 @@
         <v>4909</v>
       </c>
       <c r="J735" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.45">
@@ -37378,7 +37374,7 @@
         <v>4909</v>
       </c>
       <c r="J736" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.45">
@@ -37410,7 +37406,7 @@
         <v>4909</v>
       </c>
       <c r="J737" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.45">
@@ -37471,7 +37467,7 @@
         <v>4909</v>
       </c>
       <c r="J739" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.45">
@@ -37590,7 +37586,7 @@
         <v>4909</v>
       </c>
       <c r="J743" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.45">
@@ -37651,7 +37647,7 @@
         <v>4909</v>
       </c>
       <c r="J745" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.45">
@@ -37741,7 +37737,7 @@
         <v>4909</v>
       </c>
       <c r="J748" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.45">
@@ -37831,7 +37827,7 @@
         <v>4909</v>
       </c>
       <c r="J751" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.45">
@@ -37863,7 +37859,7 @@
         <v>4909</v>
       </c>
       <c r="J752" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.45">
@@ -37924,7 +37920,7 @@
         <v>4909</v>
       </c>
       <c r="J754" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.45">
@@ -37985,7 +37981,7 @@
         <v>4909</v>
       </c>
       <c r="J756" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.45">
@@ -38133,7 +38129,7 @@
         <v>4909</v>
       </c>
       <c r="J761" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.45">
@@ -38339,7 +38335,7 @@
         <v>4909</v>
       </c>
       <c r="J768" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.45">
@@ -38429,7 +38425,7 @@
         <v>4909</v>
       </c>
       <c r="J771" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.45">
@@ -38519,7 +38515,7 @@
         <v>4909</v>
       </c>
       <c r="J774" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="775" spans="1:10" x14ac:dyDescent="0.45">
@@ -38580,7 +38576,7 @@
         <v>4909</v>
       </c>
       <c r="J776" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="777" spans="1:10" x14ac:dyDescent="0.45">
@@ -38612,7 +38608,7 @@
         <v>4909</v>
       </c>
       <c r="J777" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="778" spans="1:10" x14ac:dyDescent="0.45">
@@ -38644,7 +38640,7 @@
         <v>4909</v>
       </c>
       <c r="J778" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="779" spans="1:10" x14ac:dyDescent="0.45">
@@ -38763,7 +38759,7 @@
         <v>4909</v>
       </c>
       <c r="J782" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="783" spans="1:10" x14ac:dyDescent="0.45">
@@ -38795,7 +38791,7 @@
         <v>4909</v>
       </c>
       <c r="J783" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="784" spans="1:10" x14ac:dyDescent="0.45">
@@ -38827,7 +38823,7 @@
         <v>4909</v>
       </c>
       <c r="J784" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.45">
@@ -39062,7 +39058,7 @@
         <v>4909</v>
       </c>
       <c r="J792" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.45">
@@ -39210,7 +39206,7 @@
         <v>4909</v>
       </c>
       <c r="J797" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.45">
@@ -39242,7 +39238,7 @@
         <v>4909</v>
       </c>
       <c r="J798" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.45">
@@ -39361,7 +39357,7 @@
         <v>4909</v>
       </c>
       <c r="J802" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="803" spans="1:10" x14ac:dyDescent="0.45">
@@ -39393,7 +39389,7 @@
         <v>4909</v>
       </c>
       <c r="J803" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="804" spans="1:10" x14ac:dyDescent="0.45">
@@ -39425,7 +39421,7 @@
         <v>4909</v>
       </c>
       <c r="J804" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.45">
@@ -39457,7 +39453,7 @@
         <v>4909</v>
       </c>
       <c r="J805" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.45">
@@ -39489,7 +39485,7 @@
         <v>4909</v>
       </c>
       <c r="J806" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="807" spans="1:10" x14ac:dyDescent="0.45">
@@ -39550,7 +39546,7 @@
         <v>4909</v>
       </c>
       <c r="J808" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="809" spans="1:10" x14ac:dyDescent="0.45">
@@ -39727,7 +39723,7 @@
         <v>4909</v>
       </c>
       <c r="J814" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="815" spans="1:10" x14ac:dyDescent="0.45">
@@ -39759,7 +39755,7 @@
         <v>4909</v>
       </c>
       <c r="J815" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.45">
@@ -39849,7 +39845,7 @@
         <v>4909</v>
       </c>
       <c r="J818" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="819" spans="1:10" x14ac:dyDescent="0.45">
@@ -39881,7 +39877,7 @@
         <v>4909</v>
       </c>
       <c r="J819" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="820" spans="1:10" x14ac:dyDescent="0.45">
@@ -39971,7 +39967,7 @@
         <v>4909</v>
       </c>
       <c r="J822" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.45">
@@ -40003,7 +39999,7 @@
         <v>4909</v>
       </c>
       <c r="J823" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="824" spans="1:10" x14ac:dyDescent="0.45">
@@ -40122,7 +40118,7 @@
         <v>4909</v>
       </c>
       <c r="J827" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.45">
@@ -40154,7 +40150,7 @@
         <v>4909</v>
       </c>
       <c r="J828" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="829" spans="1:10" x14ac:dyDescent="0.45">
@@ -40215,7 +40211,7 @@
         <v>4909</v>
       </c>
       <c r="J830" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.45">
@@ -40247,7 +40243,7 @@
         <v>4909</v>
       </c>
       <c r="J831" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.45">
@@ -40366,7 +40362,7 @@
         <v>4909</v>
       </c>
       <c r="J835" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.45">
@@ -40485,7 +40481,7 @@
         <v>4909</v>
       </c>
       <c r="J839" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.45">
@@ -40517,7 +40513,7 @@
         <v>4909</v>
       </c>
       <c r="J840" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.45">
@@ -40549,7 +40545,7 @@
         <v>4909</v>
       </c>
       <c r="J841" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.45">
@@ -40581,7 +40577,7 @@
         <v>4909</v>
       </c>
       <c r="J842" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.45">
@@ -40613,7 +40609,7 @@
         <v>4909</v>
       </c>
       <c r="J843" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="844" spans="1:10" x14ac:dyDescent="0.45">
@@ -40645,7 +40641,7 @@
         <v>4909</v>
       </c>
       <c r="J844" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.45">
@@ -40677,7 +40673,7 @@
         <v>4909</v>
       </c>
       <c r="J845" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="846" spans="1:10" x14ac:dyDescent="0.45">
@@ -40709,7 +40705,7 @@
         <v>4909</v>
       </c>
       <c r="J846" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="847" spans="1:10" x14ac:dyDescent="0.45">
@@ -40944,7 +40940,7 @@
         <v>4909</v>
       </c>
       <c r="J854" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="855" spans="1:10" x14ac:dyDescent="0.45">
@@ -40976,7 +40972,7 @@
         <v>4909</v>
       </c>
       <c r="J855" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="856" spans="1:10" x14ac:dyDescent="0.45">
@@ -41066,7 +41062,7 @@
         <v>4909</v>
       </c>
       <c r="J858" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="859" spans="1:10" x14ac:dyDescent="0.45">
@@ -41127,7 +41123,7 @@
         <v>4909</v>
       </c>
       <c r="J860" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="861" spans="1:10" x14ac:dyDescent="0.45">
@@ -41159,7 +41155,7 @@
         <v>4909</v>
       </c>
       <c r="J861" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.45">
@@ -41423,7 +41419,7 @@
         <v>4909</v>
       </c>
       <c r="J870" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="871" spans="1:10" x14ac:dyDescent="0.45">
@@ -41455,7 +41451,7 @@
         <v>4909</v>
       </c>
       <c r="J871" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="872" spans="1:10" x14ac:dyDescent="0.45">
@@ -41516,7 +41512,7 @@
         <v>4909</v>
       </c>
       <c r="J873" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.45">
@@ -41548,7 +41544,7 @@
         <v>4909</v>
       </c>
       <c r="J874" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="875" spans="1:10" x14ac:dyDescent="0.45">
@@ -41580,7 +41576,7 @@
         <v>4909</v>
       </c>
       <c r="J875" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.45">
@@ -41641,7 +41637,7 @@
         <v>4909</v>
       </c>
       <c r="J877" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.45">
@@ -41673,7 +41669,7 @@
         <v>4909</v>
       </c>
       <c r="J878" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="879" spans="1:10" x14ac:dyDescent="0.45">
@@ -41734,7 +41730,7 @@
         <v>4909</v>
       </c>
       <c r="J880" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="881" spans="1:10" x14ac:dyDescent="0.45">
@@ -41853,7 +41849,7 @@
         <v>4909</v>
       </c>
       <c r="J884" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="885" spans="1:10" x14ac:dyDescent="0.45">
@@ -41943,7 +41939,7 @@
         <v>4909</v>
       </c>
       <c r="J887" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="888" spans="1:10" x14ac:dyDescent="0.45">
@@ -42033,7 +42029,7 @@
         <v>4909</v>
       </c>
       <c r="J890" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="891" spans="1:10" x14ac:dyDescent="0.45">
@@ -42152,7 +42148,7 @@
         <v>4909</v>
       </c>
       <c r="J894" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="895" spans="1:10" x14ac:dyDescent="0.45">
@@ -42213,7 +42209,7 @@
         <v>4909</v>
       </c>
       <c r="J896" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="897" spans="1:10" x14ac:dyDescent="0.45">
@@ -42245,7 +42241,7 @@
         <v>4909</v>
       </c>
       <c r="J897" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="898" spans="1:10" x14ac:dyDescent="0.45">
@@ -42306,7 +42302,7 @@
         <v>4909</v>
       </c>
       <c r="J899" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="900" spans="1:10" x14ac:dyDescent="0.45">
@@ -42396,7 +42392,7 @@
         <v>4909</v>
       </c>
       <c r="J902" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.45">
@@ -42428,7 +42424,7 @@
         <v>4909</v>
       </c>
       <c r="J903" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="904" spans="1:10" x14ac:dyDescent="0.45">
@@ -42489,7 +42485,7 @@
         <v>4909</v>
       </c>
       <c r="J905" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="906" spans="1:10" x14ac:dyDescent="0.45">
@@ -42666,7 +42662,7 @@
         <v>4909</v>
       </c>
       <c r="J911" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="912" spans="1:10" x14ac:dyDescent="0.45">
@@ -42756,7 +42752,7 @@
         <v>4909</v>
       </c>
       <c r="J914" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="915" spans="1:10" x14ac:dyDescent="0.45">
@@ -42875,7 +42871,7 @@
         <v>4909</v>
       </c>
       <c r="J918" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="919" spans="1:10" x14ac:dyDescent="0.45">
@@ -42936,7 +42932,7 @@
         <v>4909</v>
       </c>
       <c r="J920" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="921" spans="1:10" x14ac:dyDescent="0.45">
@@ -42997,7 +42993,7 @@
         <v>4909</v>
       </c>
       <c r="J922" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.45">
@@ -43058,7 +43054,7 @@
         <v>4909</v>
       </c>
       <c r="J924" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.45">
@@ -43119,7 +43115,7 @@
         <v>4909</v>
       </c>
       <c r="J926" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="927" spans="1:10" x14ac:dyDescent="0.45">
@@ -43151,7 +43147,7 @@
         <v>4909</v>
       </c>
       <c r="J927" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="928" spans="1:10" x14ac:dyDescent="0.45">
@@ -43183,7 +43179,7 @@
         <v>4909</v>
       </c>
       <c r="J928" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="929" spans="1:10" x14ac:dyDescent="0.45">
@@ -43244,7 +43240,7 @@
         <v>4909</v>
       </c>
       <c r="J930" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="931" spans="1:10" x14ac:dyDescent="0.45">
@@ -43276,7 +43272,7 @@
         <v>4909</v>
       </c>
       <c r="J931" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="932" spans="1:10" x14ac:dyDescent="0.45">
@@ -43308,7 +43304,7 @@
         <v>4909</v>
       </c>
       <c r="J932" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="933" spans="1:10" x14ac:dyDescent="0.45">
@@ -43340,7 +43336,7 @@
         <v>4909</v>
       </c>
       <c r="J933" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="934" spans="1:10" x14ac:dyDescent="0.45">
@@ -43430,7 +43426,7 @@
         <v>4909</v>
       </c>
       <c r="J936" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.45">
@@ -43462,7 +43458,7 @@
         <v>4909</v>
       </c>
       <c r="J937" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="938" spans="1:10" x14ac:dyDescent="0.45">
@@ -43494,7 +43490,7 @@
         <v>4909</v>
       </c>
       <c r="J938" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="939" spans="1:10" x14ac:dyDescent="0.45">
@@ -43787,7 +43783,7 @@
         <v>4909</v>
       </c>
       <c r="J948" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="949" spans="1:10" x14ac:dyDescent="0.45">
@@ -43906,7 +43902,7 @@
         <v>4909</v>
       </c>
       <c r="J952" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.45">
@@ -43938,7 +43934,7 @@
         <v>4909</v>
       </c>
       <c r="J953" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="954" spans="1:10" x14ac:dyDescent="0.45">
@@ -43970,7 +43966,7 @@
         <v>4909</v>
       </c>
       <c r="J954" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="955" spans="1:10" x14ac:dyDescent="0.45">
@@ -44031,7 +44027,7 @@
         <v>4909</v>
       </c>
       <c r="J956" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="957" spans="1:10" x14ac:dyDescent="0.45">
@@ -44063,7 +44059,7 @@
         <v>4909</v>
       </c>
       <c r="J957" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="958" spans="1:10" x14ac:dyDescent="0.45">
@@ -44124,7 +44120,7 @@
         <v>4909</v>
       </c>
       <c r="J959" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="960" spans="1:10" x14ac:dyDescent="0.45">
@@ -44214,7 +44210,7 @@
         <v>4909</v>
       </c>
       <c r="J962" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="963" spans="1:10" x14ac:dyDescent="0.45">
@@ -44275,7 +44271,7 @@
         <v>4909</v>
       </c>
       <c r="J964" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.45">
@@ -44307,7 +44303,7 @@
         <v>4909</v>
       </c>
       <c r="J965" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="966" spans="1:10" x14ac:dyDescent="0.45">
@@ -44339,7 +44335,7 @@
         <v>4909</v>
       </c>
       <c r="J966" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.45">
@@ -44371,7 +44367,7 @@
         <v>4909</v>
       </c>
       <c r="J967" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="968" spans="1:10" x14ac:dyDescent="0.45">
@@ -44403,7 +44399,7 @@
         <v>4909</v>
       </c>
       <c r="J968" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="969" spans="1:10" x14ac:dyDescent="0.45">
@@ -44435,7 +44431,7 @@
         <v>4909</v>
       </c>
       <c r="J969" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="970" spans="1:10" x14ac:dyDescent="0.45">
@@ -44525,7 +44521,7 @@
         <v>4909</v>
       </c>
       <c r="J972" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="973" spans="1:10" x14ac:dyDescent="0.45">
@@ -44557,7 +44553,7 @@
         <v>4909</v>
       </c>
       <c r="J973" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="974" spans="1:10" x14ac:dyDescent="0.45">
@@ -44618,7 +44614,7 @@
         <v>4909</v>
       </c>
       <c r="J975" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.45">
@@ -44737,7 +44733,7 @@
         <v>4909</v>
       </c>
       <c r="J979" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="980" spans="1:10" x14ac:dyDescent="0.45">
@@ -44769,7 +44765,7 @@
         <v>4909</v>
       </c>
       <c r="J980" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="981" spans="1:10" x14ac:dyDescent="0.45">
@@ -44859,7 +44855,7 @@
         <v>4909</v>
       </c>
       <c r="J983" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="984" spans="1:10" x14ac:dyDescent="0.45">
@@ -44891,7 +44887,7 @@
         <v>4909</v>
       </c>
       <c r="J984" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="985" spans="1:10" x14ac:dyDescent="0.45">
@@ -44952,7 +44948,7 @@
         <v>4909</v>
       </c>
       <c r="J986" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="987" spans="1:10" x14ac:dyDescent="0.45">
@@ -45042,7 +45038,7 @@
         <v>4909</v>
       </c>
       <c r="J989" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.45">
@@ -45161,7 +45157,7 @@
         <v>4909</v>
       </c>
       <c r="J993" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="994" spans="1:10" x14ac:dyDescent="0.45">
@@ -45251,7 +45247,7 @@
         <v>4909</v>
       </c>
       <c r="J996" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="997" spans="1:10" x14ac:dyDescent="0.45">
@@ -45341,7 +45337,7 @@
         <v>4909</v>
       </c>
       <c r="J999" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1000" spans="1:10" x14ac:dyDescent="0.45">
@@ -45402,7 +45398,7 @@
         <v>4909</v>
       </c>
       <c r="J1001" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1002" spans="1:10" x14ac:dyDescent="0.45">
@@ -45463,7 +45459,7 @@
         <v>4909</v>
       </c>
       <c r="J1003" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.45">
@@ -45582,7 +45578,7 @@
         <v>4909</v>
       </c>
       <c r="J1007" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1008" spans="1:10" x14ac:dyDescent="0.45">
@@ -45614,7 +45610,7 @@
         <v>4909</v>
       </c>
       <c r="J1008" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1009" spans="1:10" x14ac:dyDescent="0.45">
@@ -45733,7 +45729,7 @@
         <v>4909</v>
       </c>
       <c r="J1012" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1013" spans="1:10" x14ac:dyDescent="0.45">
@@ -45765,7 +45761,7 @@
         <v>4909</v>
       </c>
       <c r="J1013" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1014" spans="1:10" x14ac:dyDescent="0.45">
@@ -45826,7 +45822,7 @@
         <v>4909</v>
       </c>
       <c r="J1015" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.45">
@@ -45916,7 +45912,7 @@
         <v>4909</v>
       </c>
       <c r="J1018" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1019" spans="1:10" x14ac:dyDescent="0.45">
@@ -46064,7 +46060,7 @@
         <v>4909</v>
       </c>
       <c r="J1023" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1024" spans="1:10" x14ac:dyDescent="0.45">
@@ -46096,7 +46092,7 @@
         <v>4909</v>
       </c>
       <c r="J1024" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1025" spans="1:10" x14ac:dyDescent="0.45">
@@ -46128,7 +46124,7 @@
         <v>4909</v>
       </c>
       <c r="J1025" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1026" spans="1:10" x14ac:dyDescent="0.45">
@@ -46160,7 +46156,7 @@
         <v>4909</v>
       </c>
       <c r="J1026" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.45">
@@ -46337,7 +46333,7 @@
         <v>4909</v>
       </c>
       <c r="J1032" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.45">
@@ -46369,7 +46365,7 @@
         <v>4909</v>
       </c>
       <c r="J1033" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1034" spans="1:10" x14ac:dyDescent="0.45">
@@ -46459,7 +46455,7 @@
         <v>4909</v>
       </c>
       <c r="J1036" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.45">
@@ -46549,7 +46545,7 @@
         <v>4909</v>
       </c>
       <c r="J1039" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1040" spans="1:10" x14ac:dyDescent="0.45">
@@ -46610,7 +46606,7 @@
         <v>4909</v>
       </c>
       <c r="J1041" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1042" spans="1:10" x14ac:dyDescent="0.45">
@@ -46671,7 +46667,7 @@
         <v>4909</v>
       </c>
       <c r="J1043" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.45">
@@ -46819,7 +46815,7 @@
         <v>4909</v>
       </c>
       <c r="J1048" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1049" spans="1:10" x14ac:dyDescent="0.45">
@@ -46851,7 +46847,7 @@
         <v>4909</v>
       </c>
       <c r="J1049" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1050" spans="1:10" x14ac:dyDescent="0.45">
@@ -46999,7 +46995,7 @@
         <v>4909</v>
       </c>
       <c r="J1054" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="1055" spans="1:10" x14ac:dyDescent="0.45">
@@ -47060,7 +47056,7 @@
         <v>4909</v>
       </c>
       <c r="J1056" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.45">
@@ -47092,7 +47088,7 @@
         <v>4909</v>
       </c>
       <c r="J1057" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1058" spans="1:10" x14ac:dyDescent="0.45">
@@ -47124,7 +47120,7 @@
         <v>4909</v>
       </c>
       <c r="J1058" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1059" spans="1:10" x14ac:dyDescent="0.45">
@@ -47156,7 +47152,7 @@
         <v>4909</v>
       </c>
       <c r="J1059" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1060" spans="1:10" x14ac:dyDescent="0.45">
@@ -47217,7 +47213,7 @@
         <v>4909</v>
       </c>
       <c r="J1061" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1062" spans="1:10" x14ac:dyDescent="0.45">
@@ -47249,7 +47245,7 @@
         <v>4909</v>
       </c>
       <c r="J1062" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1063" spans="1:10" x14ac:dyDescent="0.45">
@@ -47397,7 +47393,7 @@
         <v>4909</v>
       </c>
       <c r="J1067" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1068" spans="1:10" x14ac:dyDescent="0.45">
@@ -47429,7 +47425,7 @@
         <v>4909</v>
       </c>
       <c r="J1068" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1069" spans="1:10" x14ac:dyDescent="0.45">
@@ -47548,7 +47544,7 @@
         <v>4909</v>
       </c>
       <c r="J1072" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.45">
@@ -47609,7 +47605,7 @@
         <v>4909</v>
       </c>
       <c r="J1074" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1075" spans="1:10" x14ac:dyDescent="0.45">
@@ -47670,7 +47666,7 @@
         <v>4909</v>
       </c>
       <c r="J1076" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1077" spans="1:10" x14ac:dyDescent="0.45">
@@ -47702,7 +47698,7 @@
         <v>4909</v>
       </c>
       <c r="J1077" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1078" spans="1:10" x14ac:dyDescent="0.45">
@@ -47792,7 +47788,7 @@
         <v>4909</v>
       </c>
       <c r="J1080" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.45">
@@ -47882,7 +47878,7 @@
         <v>4909</v>
       </c>
       <c r="J1083" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1084" spans="1:10" x14ac:dyDescent="0.45">
@@ -47943,7 +47939,7 @@
         <v>4909</v>
       </c>
       <c r="J1085" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1086" spans="1:10" x14ac:dyDescent="0.45">
@@ -48062,7 +48058,7 @@
         <v>4909</v>
       </c>
       <c r="J1089" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1090" spans="1:10" x14ac:dyDescent="0.45">
@@ -48094,7 +48090,7 @@
         <v>4909</v>
       </c>
       <c r="J1090" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1091" spans="1:10" x14ac:dyDescent="0.45">
@@ -48126,7 +48122,7 @@
         <v>4909</v>
       </c>
       <c r="J1091" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1092" spans="1:10" x14ac:dyDescent="0.45">
@@ -48158,7 +48154,7 @@
         <v>4909</v>
       </c>
       <c r="J1092" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1093" spans="1:10" x14ac:dyDescent="0.45">
@@ -48190,7 +48186,7 @@
         <v>4909</v>
       </c>
       <c r="J1093" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1094" spans="1:10" x14ac:dyDescent="0.45">
@@ -48222,7 +48218,7 @@
         <v>4909</v>
       </c>
       <c r="J1094" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.45">
@@ -48341,7 +48337,7 @@
         <v>4909</v>
       </c>
       <c r="J1098" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.45">
@@ -48518,7 +48514,7 @@
         <v>4909</v>
       </c>
       <c r="J1104" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1105" spans="1:10" x14ac:dyDescent="0.45">
@@ -48666,7 +48662,7 @@
         <v>4909</v>
       </c>
       <c r="J1109" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.45">
@@ -48756,7 +48752,7 @@
         <v>4909</v>
       </c>
       <c r="J1112" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.45">
@@ -48788,7 +48784,7 @@
         <v>4909</v>
       </c>
       <c r="J1113" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1114" spans="1:10" x14ac:dyDescent="0.45">
@@ -48820,7 +48816,7 @@
         <v>4909</v>
       </c>
       <c r="J1114" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1115" spans="1:10" x14ac:dyDescent="0.45">
@@ -48852,7 +48848,7 @@
         <v>4909</v>
       </c>
       <c r="J1115" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1116" spans="1:10" x14ac:dyDescent="0.45">
@@ -48884,7 +48880,7 @@
         <v>4909</v>
       </c>
       <c r="J1116" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1117" spans="1:10" x14ac:dyDescent="0.45">
@@ -48945,7 +48941,7 @@
         <v>4909</v>
       </c>
       <c r="J1118" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1119" spans="1:10" x14ac:dyDescent="0.45">
@@ -49006,7 +49002,7 @@
         <v>4909</v>
       </c>
       <c r="J1120" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1121" spans="1:10" x14ac:dyDescent="0.45">
@@ -49125,7 +49121,7 @@
         <v>4909</v>
       </c>
       <c r="J1124" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1125" spans="1:10" x14ac:dyDescent="0.45">
@@ -49302,7 +49298,7 @@
         <v>4909</v>
       </c>
       <c r="J1130" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1131" spans="1:10" x14ac:dyDescent="0.45">
@@ -49421,7 +49417,7 @@
         <v>4909</v>
       </c>
       <c r="J1134" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1135" spans="1:10" x14ac:dyDescent="0.45">
@@ -49453,7 +49449,7 @@
         <v>4909</v>
       </c>
       <c r="J1135" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1136" spans="1:10" x14ac:dyDescent="0.45">
@@ -49485,7 +49481,7 @@
         <v>4909</v>
       </c>
       <c r="J1136" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1137" spans="1:10" x14ac:dyDescent="0.45">
@@ -49575,7 +49571,7 @@
         <v>4909</v>
       </c>
       <c r="J1139" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1140" spans="1:10" x14ac:dyDescent="0.45">
@@ -49607,7 +49603,7 @@
         <v>4909</v>
       </c>
       <c r="J1140" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1141" spans="1:10" x14ac:dyDescent="0.45">
@@ -49639,7 +49635,7 @@
         <v>4909</v>
       </c>
       <c r="J1141" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1142" spans="1:10" x14ac:dyDescent="0.45">
@@ -49787,7 +49783,7 @@
         <v>4909</v>
       </c>
       <c r="J1146" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1147" spans="1:10" x14ac:dyDescent="0.45">
@@ -49819,7 +49815,7 @@
         <v>4909</v>
       </c>
       <c r="J1147" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1148" spans="1:10" x14ac:dyDescent="0.45">
@@ -50025,7 +50021,7 @@
         <v>4909</v>
       </c>
       <c r="J1154" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1155" spans="1:10" x14ac:dyDescent="0.45">
@@ -50173,7 +50169,7 @@
         <v>4909</v>
       </c>
       <c r="J1159" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.45">
@@ -50234,7 +50230,7 @@
         <v>4909</v>
       </c>
       <c r="J1161" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1162" spans="1:10" x14ac:dyDescent="0.45">
@@ -50295,7 +50291,7 @@
         <v>4909</v>
       </c>
       <c r="J1163" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1164" spans="1:10" x14ac:dyDescent="0.45">
@@ -50356,7 +50352,7 @@
         <v>4909</v>
       </c>
       <c r="J1165" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1166" spans="1:10" x14ac:dyDescent="0.45">
@@ -50388,7 +50384,7 @@
         <v>4909</v>
       </c>
       <c r="J1166" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1167" spans="1:10" x14ac:dyDescent="0.45">
@@ -50449,7 +50445,7 @@
         <v>4909</v>
       </c>
       <c r="J1168" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1169" spans="1:10" x14ac:dyDescent="0.45">
@@ -50481,7 +50477,7 @@
         <v>4909</v>
       </c>
       <c r="J1169" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1170" spans="1:10" x14ac:dyDescent="0.45">
@@ -50658,7 +50654,7 @@
         <v>4909</v>
       </c>
       <c r="J1175" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1176" spans="1:10" x14ac:dyDescent="0.45">
@@ -50719,7 +50715,7 @@
         <v>4909</v>
       </c>
       <c r="J1177" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1178" spans="1:10" x14ac:dyDescent="0.45">
@@ -50751,7 +50747,7 @@
         <v>4909</v>
       </c>
       <c r="J1178" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.45">
@@ -50812,7 +50808,7 @@
         <v>4909</v>
       </c>
       <c r="J1180" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1181" spans="1:10" x14ac:dyDescent="0.45">
@@ -50844,7 +50840,7 @@
         <v>4909</v>
       </c>
       <c r="J1181" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1182" spans="1:10" x14ac:dyDescent="0.45">
@@ -50876,7 +50872,7 @@
         <v>4909</v>
       </c>
       <c r="J1182" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1183" spans="1:10" x14ac:dyDescent="0.45">
@@ -50966,7 +50962,7 @@
         <v>4909</v>
       </c>
       <c r="J1185" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1186" spans="1:10" x14ac:dyDescent="0.45">
@@ -50998,7 +50994,7 @@
         <v>4909</v>
       </c>
       <c r="J1186" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.45">
@@ -51030,7 +51026,7 @@
         <v>4909</v>
       </c>
       <c r="J1187" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1188" spans="1:10" x14ac:dyDescent="0.45">
@@ -51265,7 +51261,7 @@
         <v>4909</v>
       </c>
       <c r="J1195" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1196" spans="1:10" x14ac:dyDescent="0.45">
@@ -51355,7 +51351,7 @@
         <v>4909</v>
       </c>
       <c r="J1198" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1199" spans="1:10" x14ac:dyDescent="0.45">
@@ -51445,7 +51441,7 @@
         <v>4909</v>
       </c>
       <c r="J1201" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1202" spans="1:10" x14ac:dyDescent="0.45">
@@ -51477,7 +51473,7 @@
         <v>4909</v>
       </c>
       <c r="J1202" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1203" spans="1:10" x14ac:dyDescent="0.45">
@@ -51625,7 +51621,7 @@
         <v>4909</v>
       </c>
       <c r="J1207" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.45">
@@ -51686,7 +51682,7 @@
         <v>4909</v>
       </c>
       <c r="J1209" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1210" spans="1:10" x14ac:dyDescent="0.45">
@@ -51747,7 +51743,7 @@
         <v>4909</v>
       </c>
       <c r="J1211" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1212" spans="1:10" x14ac:dyDescent="0.45">
@@ -51779,7 +51775,7 @@
         <v>4909</v>
       </c>
       <c r="J1212" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1213" spans="1:10" x14ac:dyDescent="0.45">
@@ -51811,7 +51807,7 @@
         <v>4909</v>
       </c>
       <c r="J1213" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1214" spans="1:10" x14ac:dyDescent="0.45">
@@ -51872,7 +51868,7 @@
         <v>4909</v>
       </c>
       <c r="J1215" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1216" spans="1:10" x14ac:dyDescent="0.45">
@@ -51904,7 +51900,7 @@
         <v>4909</v>
       </c>
       <c r="J1216" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1217" spans="1:10" x14ac:dyDescent="0.45">
@@ -52139,7 +52135,7 @@
         <v>4909</v>
       </c>
       <c r="J1224" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.45">
@@ -52229,7 +52225,7 @@
         <v>4909</v>
       </c>
       <c r="J1227" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1228" spans="1:10" x14ac:dyDescent="0.45">
@@ -52261,7 +52257,7 @@
         <v>4909</v>
       </c>
       <c r="J1228" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.45">
@@ -52322,7 +52318,7 @@
         <v>4909</v>
       </c>
       <c r="J1230" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1231" spans="1:10" x14ac:dyDescent="0.45">
@@ -52383,7 +52379,7 @@
         <v>4909</v>
       </c>
       <c r="J1232" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1233" spans="1:10" x14ac:dyDescent="0.45">
@@ -52415,7 +52411,7 @@
         <v>4909</v>
       </c>
       <c r="J1233" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1234" spans="1:10" x14ac:dyDescent="0.45">
@@ -52592,7 +52588,7 @@
         <v>4909</v>
       </c>
       <c r="J1239" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1240" spans="1:10" x14ac:dyDescent="0.45">
@@ -52682,7 +52678,7 @@
         <v>4909</v>
       </c>
       <c r="J1242" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.45">
@@ -52714,7 +52710,7 @@
         <v>4909</v>
       </c>
       <c r="J1243" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1244" spans="1:10" x14ac:dyDescent="0.45">
@@ -52804,7 +52800,7 @@
         <v>4909</v>
       </c>
       <c r="J1246" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.45">
@@ -52836,7 +52832,7 @@
         <v>4909</v>
       </c>
       <c r="J1247" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1248" spans="1:10" x14ac:dyDescent="0.45">
@@ -52897,7 +52893,7 @@
         <v>4909</v>
       </c>
       <c r="J1249" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1250" spans="1:10" x14ac:dyDescent="0.45">
@@ -52958,7 +52954,7 @@
         <v>4909</v>
       </c>
       <c r="J1251" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1252" spans="1:10" x14ac:dyDescent="0.45">
@@ -52990,7 +52986,7 @@
         <v>4909</v>
       </c>
       <c r="J1252" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.45">
@@ -53022,7 +53018,7 @@
         <v>4909</v>
       </c>
       <c r="J1253" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1254" spans="1:10" x14ac:dyDescent="0.45">
@@ -53054,7 +53050,7 @@
         <v>4909</v>
       </c>
       <c r="J1254" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.45">
@@ -53115,7 +53111,7 @@
         <v>4909</v>
       </c>
       <c r="J1256" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1257" spans="1:10" x14ac:dyDescent="0.45">
@@ -53147,7 +53143,7 @@
         <v>4909</v>
       </c>
       <c r="J1257" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1258" spans="1:10" x14ac:dyDescent="0.45">
@@ -53208,7 +53204,7 @@
         <v>4909</v>
       </c>
       <c r="J1259" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.45">
@@ -53385,7 +53381,7 @@
         <v>4909</v>
       </c>
       <c r="J1265" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1266" spans="1:10" x14ac:dyDescent="0.45">
@@ -53533,7 +53529,7 @@
         <v>4909</v>
       </c>
       <c r="J1270" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1271" spans="1:10" x14ac:dyDescent="0.45">
@@ -53565,7 +53561,7 @@
         <v>4909</v>
       </c>
       <c r="J1271" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.45">
@@ -53945,7 +53941,7 @@
         <v>4909</v>
       </c>
       <c r="J1284" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1285" spans="1:10" x14ac:dyDescent="0.45">
@@ -54006,7 +54002,7 @@
         <v>4909</v>
       </c>
       <c r="J1286" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1287" spans="1:10" x14ac:dyDescent="0.45">
@@ -54067,7 +54063,7 @@
         <v>4909</v>
       </c>
       <c r="J1288" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1289" spans="1:10" x14ac:dyDescent="0.45">
@@ -54128,7 +54124,7 @@
         <v>4909</v>
       </c>
       <c r="J1290" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1291" spans="1:10" x14ac:dyDescent="0.45">
@@ -54160,7 +54156,7 @@
         <v>4909</v>
       </c>
       <c r="J1291" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1292" spans="1:10" x14ac:dyDescent="0.45">
@@ -54337,7 +54333,7 @@
         <v>4909</v>
       </c>
       <c r="J1297" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.45">
@@ -54369,7 +54365,7 @@
         <v>4909</v>
       </c>
       <c r="J1298" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1299" spans="1:10" x14ac:dyDescent="0.45">
@@ -54430,7 +54426,7 @@
         <v>4909</v>
       </c>
       <c r="J1300" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1301" spans="1:10" x14ac:dyDescent="0.45">
@@ -54491,7 +54487,7 @@
         <v>4909</v>
       </c>
       <c r="J1302" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.45">
@@ -54523,7 +54519,7 @@
         <v>4909</v>
       </c>
       <c r="J1303" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1304" spans="1:10" x14ac:dyDescent="0.45">
@@ -54642,7 +54638,7 @@
         <v>4909</v>
       </c>
       <c r="J1307" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1308" spans="1:10" x14ac:dyDescent="0.45">
@@ -54703,7 +54699,7 @@
         <v>4909</v>
       </c>
       <c r="J1309" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1310" spans="1:10" x14ac:dyDescent="0.45">
@@ -54735,7 +54731,7 @@
         <v>4909</v>
       </c>
       <c r="J1310" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1311" spans="1:10" x14ac:dyDescent="0.45">
@@ -55028,7 +55024,7 @@
         <v>4909</v>
       </c>
       <c r="J1320" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1321" spans="1:10" x14ac:dyDescent="0.45">
@@ -55060,7 +55056,7 @@
         <v>4909</v>
       </c>
       <c r="J1321" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1322" spans="1:10" x14ac:dyDescent="0.45">
@@ -55092,7 +55088,7 @@
         <v>4909</v>
       </c>
       <c r="J1322" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1323" spans="1:10" x14ac:dyDescent="0.45">
@@ -55124,7 +55120,7 @@
         <v>4909</v>
       </c>
       <c r="J1323" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1324" spans="1:10" x14ac:dyDescent="0.45">
@@ -55185,7 +55181,7 @@
         <v>4909</v>
       </c>
       <c r="J1325" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1326" spans="1:10" x14ac:dyDescent="0.45">
@@ -55217,7 +55213,7 @@
         <v>4909</v>
       </c>
       <c r="J1326" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1327" spans="1:10" x14ac:dyDescent="0.45">
@@ -55278,7 +55274,7 @@
         <v>4909</v>
       </c>
       <c r="J1328" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1329" spans="1:10" x14ac:dyDescent="0.45">
@@ -55310,7 +55306,7 @@
         <v>4909</v>
       </c>
       <c r="J1329" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1330" spans="1:10" x14ac:dyDescent="0.45">
@@ -55342,7 +55338,7 @@
         <v>4909</v>
       </c>
       <c r="J1330" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1331" spans="1:10" x14ac:dyDescent="0.45">
@@ -55374,7 +55370,7 @@
         <v>4909</v>
       </c>
       <c r="J1331" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1332" spans="1:10" x14ac:dyDescent="0.45">
@@ -55406,7 +55402,7 @@
         <v>4909</v>
       </c>
       <c r="J1332" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.45">
@@ -55438,7 +55434,7 @@
         <v>4909</v>
       </c>
       <c r="J1333" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1334" spans="1:10" x14ac:dyDescent="0.45">
@@ -55470,7 +55466,7 @@
         <v>4909</v>
       </c>
       <c r="J1334" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1335" spans="1:10" x14ac:dyDescent="0.45">
@@ -55502,7 +55498,7 @@
         <v>4909</v>
       </c>
       <c r="J1335" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1336" spans="1:10" x14ac:dyDescent="0.45">
@@ -55563,7 +55559,7 @@
         <v>4909</v>
       </c>
       <c r="J1337" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1338" spans="1:10" x14ac:dyDescent="0.45">
@@ -55653,7 +55649,7 @@
         <v>4909</v>
       </c>
       <c r="J1340" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="1341" spans="1:10" x14ac:dyDescent="0.45">
@@ -55772,7 +55768,7 @@
         <v>4909</v>
       </c>
       <c r="J1344" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1345" spans="1:10" x14ac:dyDescent="0.45">
@@ -55833,7 +55829,7 @@
         <v>4909</v>
       </c>
       <c r="J1346" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.45">
@@ -55923,7 +55919,7 @@
         <v>4909</v>
       </c>
       <c r="J1349" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1350" spans="1:10" x14ac:dyDescent="0.45">
@@ -55955,7 +55951,7 @@
         <v>4909</v>
       </c>
       <c r="J1350" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1351" spans="1:10" x14ac:dyDescent="0.45">
@@ -55987,7 +55983,7 @@
         <v>4909</v>
       </c>
       <c r="J1351" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1352" spans="1:10" x14ac:dyDescent="0.45">
@@ -56019,7 +56015,7 @@
         <v>4909</v>
       </c>
       <c r="J1352" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1353" spans="1:10" x14ac:dyDescent="0.45">
@@ -56080,7 +56076,7 @@
         <v>4909</v>
       </c>
       <c r="J1354" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1355" spans="1:10" x14ac:dyDescent="0.45">
@@ -56199,7 +56195,7 @@
         <v>4909</v>
       </c>
       <c r="J1358" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1359" spans="1:10" x14ac:dyDescent="0.45">
@@ -56231,7 +56227,7 @@
         <v>4909</v>
       </c>
       <c r="J1359" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1360" spans="1:10" x14ac:dyDescent="0.45">
@@ -56350,7 +56346,7 @@
         <v>4909</v>
       </c>
       <c r="J1363" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1364" spans="1:10" x14ac:dyDescent="0.45">
@@ -56411,7 +56407,7 @@
         <v>4909</v>
       </c>
       <c r="J1365" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1366" spans="1:10" x14ac:dyDescent="0.45">
@@ -56443,7 +56439,7 @@
         <v>4909</v>
       </c>
       <c r="J1366" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.45">
@@ -56475,7 +56471,7 @@
         <v>4909</v>
       </c>
       <c r="J1367" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1368" spans="1:10" x14ac:dyDescent="0.45">
@@ -56507,7 +56503,7 @@
         <v>4909</v>
       </c>
       <c r="J1368" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.45">
@@ -56597,7 +56593,7 @@
         <v>4909</v>
       </c>
       <c r="J1371" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1372" spans="1:10" x14ac:dyDescent="0.45">
@@ -56658,7 +56654,7 @@
         <v>4909</v>
       </c>
       <c r="J1373" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.45">
@@ -56690,7 +56686,7 @@
         <v>4909</v>
       </c>
       <c r="J1374" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1375" spans="1:10" x14ac:dyDescent="0.45">
@@ -56722,7 +56718,7 @@
         <v>4909</v>
       </c>
       <c r="J1375" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1376" spans="1:10" x14ac:dyDescent="0.45">
@@ -56754,7 +56750,7 @@
         <v>4909</v>
       </c>
       <c r="J1376" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1377" spans="1:10" x14ac:dyDescent="0.45">
@@ -56844,7 +56840,7 @@
         <v>4909</v>
       </c>
       <c r="J1379" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1380" spans="1:10" x14ac:dyDescent="0.45">
@@ -56934,7 +56930,7 @@
         <v>4909</v>
       </c>
       <c r="J1382" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1383" spans="1:10" x14ac:dyDescent="0.45">
@@ -57053,7 +57049,7 @@
         <v>4909</v>
       </c>
       <c r="J1386" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1387" spans="1:10" x14ac:dyDescent="0.45">
@@ -57085,7 +57081,7 @@
         <v>4909</v>
       </c>
       <c r="J1387" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1388" spans="1:10" x14ac:dyDescent="0.45">
@@ -57146,7 +57142,7 @@
         <v>4909</v>
       </c>
       <c r="J1389" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1390" spans="1:10" x14ac:dyDescent="0.45">
@@ -57207,7 +57203,7 @@
         <v>4909</v>
       </c>
       <c r="J1391" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1392" spans="1:10" x14ac:dyDescent="0.45">
@@ -57268,7 +57264,7 @@
         <v>4909</v>
       </c>
       <c r="J1393" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="1394" spans="1:10" x14ac:dyDescent="0.45">
@@ -57300,7 +57296,7 @@
         <v>4909</v>
       </c>
       <c r="J1394" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1395" spans="1:10" x14ac:dyDescent="0.45">
@@ -57448,7 +57444,7 @@
         <v>4909</v>
       </c>
       <c r="J1399" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1400" spans="1:10" x14ac:dyDescent="0.45">
@@ -57480,7 +57476,7 @@
         <v>4909</v>
       </c>
       <c r="J1400" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1401" spans="1:10" x14ac:dyDescent="0.45">
@@ -57512,7 +57508,7 @@
         <v>4909</v>
       </c>
       <c r="J1401" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.45">
@@ -57544,7 +57540,7 @@
         <v>4909</v>
       </c>
       <c r="J1402" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1403" spans="1:10" x14ac:dyDescent="0.45">
@@ -57576,7 +57572,7 @@
         <v>4909</v>
       </c>
       <c r="J1403" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1404" spans="1:10" x14ac:dyDescent="0.45">
@@ -57637,7 +57633,7 @@
         <v>4909</v>
       </c>
       <c r="J1405" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1406" spans="1:10" x14ac:dyDescent="0.45">
@@ -57698,7 +57694,7 @@
         <v>4909</v>
       </c>
       <c r="J1407" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1408" spans="1:10" x14ac:dyDescent="0.45">
@@ -57759,7 +57755,7 @@
         <v>4909</v>
       </c>
       <c r="J1409" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1410" spans="1:10" x14ac:dyDescent="0.45">
@@ -57791,7 +57787,7 @@
         <v>4909</v>
       </c>
       <c r="J1410" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.45">
@@ -57881,7 +57877,7 @@
         <v>4909</v>
       </c>
       <c r="J1413" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.45">
@@ -57913,7 +57909,7 @@
         <v>4909</v>
       </c>
       <c r="J1414" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1415" spans="1:10" x14ac:dyDescent="0.45">
@@ -57945,7 +57941,7 @@
         <v>4909</v>
       </c>
       <c r="J1415" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1416" spans="1:10" x14ac:dyDescent="0.45">
@@ -58006,7 +58002,7 @@
         <v>4909</v>
       </c>
       <c r="J1417" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1418" spans="1:10" x14ac:dyDescent="0.45">
@@ -58096,7 +58092,7 @@
         <v>4909</v>
       </c>
       <c r="J1420" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1421" spans="1:10" x14ac:dyDescent="0.45">
@@ -58244,7 +58240,7 @@
         <v>4909</v>
       </c>
       <c r="J1425" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1426" spans="1:10" x14ac:dyDescent="0.45">
@@ -58276,7 +58272,7 @@
         <v>4909</v>
       </c>
       <c r="J1426" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1427" spans="1:10" x14ac:dyDescent="0.45">
@@ -58337,7 +58333,7 @@
         <v>4909</v>
       </c>
       <c r="J1428" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1429" spans="1:10" x14ac:dyDescent="0.45">
@@ -58398,7 +58394,7 @@
         <v>4909</v>
       </c>
       <c r="J1430" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1431" spans="1:10" x14ac:dyDescent="0.45">
@@ -58430,7 +58426,7 @@
         <v>4909</v>
       </c>
       <c r="J1431" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.45">
@@ -58462,7 +58458,7 @@
         <v>4909</v>
       </c>
       <c r="J1432" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1433" spans="1:10" x14ac:dyDescent="0.45">
@@ -58494,7 +58490,7 @@
         <v>4909</v>
       </c>
       <c r="J1433" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1434" spans="1:10" x14ac:dyDescent="0.45">
@@ -58526,7 +58522,7 @@
         <v>4909</v>
       </c>
       <c r="J1434" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.45">
@@ -58558,7 +58554,7 @@
         <v>4909</v>
       </c>
       <c r="J1435" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1436" spans="1:10" x14ac:dyDescent="0.45">
@@ -58648,7 +58644,7 @@
         <v>4909</v>
       </c>
       <c r="J1438" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1439" spans="1:10" x14ac:dyDescent="0.45">
@@ -58680,7 +58676,7 @@
         <v>4909</v>
       </c>
       <c r="J1439" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1440" spans="1:10" x14ac:dyDescent="0.45">
@@ -58712,7 +58708,7 @@
         <v>4909</v>
       </c>
       <c r="J1440" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1441" spans="1:10" x14ac:dyDescent="0.45">
@@ -58744,7 +58740,7 @@
         <v>4909</v>
       </c>
       <c r="J1441" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1442" spans="1:10" x14ac:dyDescent="0.45">
@@ -58921,7 +58917,7 @@
         <v>4909</v>
       </c>
       <c r="J1447" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1448" spans="1:10" x14ac:dyDescent="0.45">
@@ -58953,7 +58949,7 @@
         <v>4909</v>
       </c>
       <c r="J1448" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.45">
@@ -59014,7 +59010,7 @@
         <v>4909</v>
       </c>
       <c r="J1450" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1451" spans="1:10" x14ac:dyDescent="0.45">
@@ -59046,7 +59042,7 @@
         <v>4909</v>
       </c>
       <c r="J1451" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1452" spans="1:10" x14ac:dyDescent="0.45">
@@ -59223,7 +59219,7 @@
         <v>4909</v>
       </c>
       <c r="J1457" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1458" spans="1:10" x14ac:dyDescent="0.45">
@@ -59342,7 +59338,7 @@
         <v>4909</v>
       </c>
       <c r="J1461" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1462" spans="1:10" x14ac:dyDescent="0.45">
@@ -59403,7 +59399,7 @@
         <v>4909</v>
       </c>
       <c r="J1463" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1464" spans="1:10" x14ac:dyDescent="0.45">
@@ -59435,7 +59431,7 @@
         <v>4909</v>
       </c>
       <c r="J1464" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1465" spans="1:10" x14ac:dyDescent="0.45">
@@ -59525,7 +59521,7 @@
         <v>4909</v>
       </c>
       <c r="J1467" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1468" spans="1:10" x14ac:dyDescent="0.45">
@@ -59557,7 +59553,7 @@
         <v>4909</v>
       </c>
       <c r="J1468" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.45">
@@ -59676,7 +59672,7 @@
         <v>4909</v>
       </c>
       <c r="J1472" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.45">
@@ -59824,7 +59820,7 @@
         <v>4909</v>
       </c>
       <c r="J1477" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.45">
@@ -59885,7 +59881,7 @@
         <v>4909</v>
       </c>
       <c r="J1479" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.45">
@@ -60004,7 +60000,7 @@
         <v>4909</v>
       </c>
       <c r="J1483" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1484" spans="1:10" x14ac:dyDescent="0.45">
@@ -60094,7 +60090,7 @@
         <v>4909</v>
       </c>
       <c r="J1486" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.45">
@@ -60184,7 +60180,7 @@
         <v>4909</v>
       </c>
       <c r="J1489" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="1490" spans="1:10" x14ac:dyDescent="0.45">
@@ -60216,7 +60212,7 @@
         <v>4909</v>
       </c>
       <c r="J1490" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1491" spans="1:10" x14ac:dyDescent="0.45">
@@ -60248,7 +60244,7 @@
         <v>4909</v>
       </c>
       <c r="J1491" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1492" spans="1:10" x14ac:dyDescent="0.45">
@@ -60309,7 +60305,7 @@
         <v>4909</v>
       </c>
       <c r="J1493" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="1494" spans="1:10" x14ac:dyDescent="0.45">
@@ -60341,7 +60337,7 @@
         <v>4909</v>
       </c>
       <c r="J1494" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1495" spans="1:10" x14ac:dyDescent="0.45">
@@ -60547,7 +60543,7 @@
         <v>4909</v>
       </c>
       <c r="J1501" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="1502" spans="1:10" x14ac:dyDescent="0.45">
@@ -60579,7 +60575,7 @@
         <v>4909</v>
       </c>
       <c r="J1502" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1503" spans="1:10" x14ac:dyDescent="0.45">
@@ -60640,7 +60636,7 @@
         <v>4909</v>
       </c>
       <c r="J1504" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="1505" spans="1:10" x14ac:dyDescent="0.45">
@@ -60788,7 +60784,7 @@
         <v>4909</v>
       </c>
       <c r="J1509" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
   </sheetData>
